--- a/data/ipc_adjusted.xlsx
+++ b/data/ipc_adjusted.xlsx
@@ -1553,10 +1553,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1.062</v>
+        <v>106.2</v>
       </c>
       <c r="C2" t="n">
-        <v>-48.6112405320814</v>
+        <v>104.365496161089</v>
       </c>
     </row>
     <row r="3">
@@ -1564,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1.112976</v>
+        <v>104.8</v>
       </c>
       <c r="C3" t="n">
-        <v>-55.026329243703</v>
+        <v>103.924079827159</v>
       </c>
     </row>
     <row r="4">
@@ -1575,10 +1575,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1.183093488</v>
+        <v>106.3</v>
       </c>
       <c r="C4" t="n">
-        <v>-49.0194618967691</v>
+        <v>105.93485880562</v>
       </c>
     </row>
     <row r="5">
@@ -1586,10 +1586,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>1.93435785288</v>
+        <v>163.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-40.2651395632595</v>
+        <v>163.480297522101</v>
       </c>
     </row>
     <row r="6">
@@ -1597,10 +1597,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9923885884664</v>
+        <v>103</v>
       </c>
       <c r="C6" t="n">
-        <v>-30.1323231279089</v>
+        <v>103.318320828353</v>
       </c>
     </row>
     <row r="7">
@@ -1608,10 +1608,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>2.016297251528</v>
+        <v>101.2</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.7020212857825</v>
+        <v>102.293239740585</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>2.02839503503716</v>
+        <v>100.6</v>
       </c>
       <c r="C8" t="n">
-        <v>8.31660877555397</v>
+        <v>101.972382964711</v>
       </c>
     </row>
     <row r="9">
@@ -1630,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>2.03853701021235</v>
+        <v>100.5</v>
       </c>
       <c r="C9" t="n">
-        <v>46.9014935573823</v>
+        <v>101.956167566316</v>
       </c>
     </row>
     <row r="10">
@@ -1641,10 +1641,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>2.06096091732469</v>
+        <v>101.1</v>
       </c>
       <c r="C10" t="n">
-        <v>69.5537768590086</v>
+        <v>101.721882168607</v>
       </c>
     </row>
     <row r="11">
@@ -1652,10 +1652,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>2.13309454943105</v>
+        <v>103.5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.8167408819794</v>
+        <v>103.350992350024</v>
       </c>
     </row>
     <row r="12">
@@ -1663,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>2.32293996433041</v>
+        <v>108.9</v>
       </c>
       <c r="C12" t="n">
-        <v>49.5838186817662</v>
+        <v>107.934640575105</v>
       </c>
     </row>
     <row r="13">
@@ -1674,10 +1674,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>2.60401570001439</v>
+        <v>112.1</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1125728765817</v>
+        <v>111.224211050857</v>
       </c>
     </row>
     <row r="14">
@@ -1685,10 +1685,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>8.9916662121497</v>
+        <v>345.3</v>
       </c>
       <c r="C14" t="n">
-        <v>-38.9960211289087</v>
+        <v>339.352715332507</v>
       </c>
     </row>
     <row r="15">
@@ -1696,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4084993727666</v>
+        <v>138</v>
       </c>
       <c r="C15" t="n">
-        <v>-48.5551526798821</v>
+        <v>136.842027529739</v>
       </c>
     </row>
     <row r="16">
@@ -1707,10 +1707,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>16.1186406852238</v>
+        <v>129.9</v>
       </c>
       <c r="C16" t="n">
-        <v>-37.2276364845848</v>
+        <v>129.461447808397</v>
       </c>
     </row>
     <row r="17">
@@ -1718,10 +1718,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>19.6163857139174</v>
+        <v>121.7</v>
       </c>
       <c r="C17" t="n">
-        <v>-25.6719767664681</v>
+        <v>121.706427280672</v>
       </c>
     </row>
     <row r="18">
@@ -1729,10 +1729,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>21.9507356138735</v>
+        <v>111.9</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.629409109673</v>
+        <v>112.269748528221</v>
       </c>
     </row>
     <row r="19">
@@ -1740,10 +1740,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>26.1433261161234</v>
+        <v>119.1</v>
       </c>
       <c r="C19" t="n">
-        <v>8.06954150609768</v>
+        <v>120.343918411553</v>
       </c>
     </row>
     <row r="20">
@@ -1751,10 +1751,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>28.9145186844324</v>
+        <v>110.6</v>
       </c>
       <c r="C20" t="n">
-        <v>36.0178694125745</v>
+        <v>112.067596499504</v>
       </c>
     </row>
     <row r="21">
@@ -1762,10 +1762,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>31.4011672912936</v>
+        <v>108.6</v>
       </c>
       <c r="C21" t="n">
-        <v>80.5466911488766</v>
+        <v>110.165020692692</v>
       </c>
     </row>
     <row r="22">
@@ -1773,10 +1773,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>35.0123015297924</v>
+        <v>111.5</v>
       </c>
       <c r="C22" t="n">
-        <v>109.041501378158</v>
+        <v>112.191850921225</v>
       </c>
     </row>
     <row r="23">
@@ -1784,10 +1784,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>43.0301185801149</v>
+        <v>122.9</v>
       </c>
       <c r="C23" t="n">
-        <v>110.815889822607</v>
+        <v>122.731811779193</v>
       </c>
     </row>
     <row r="24">
@@ -1795,10 +1795,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>54.2609795295248</v>
+        <v>126.1</v>
       </c>
       <c r="C24" t="n">
-        <v>106.449253685768</v>
+        <v>124.996266255497</v>
       </c>
     </row>
     <row r="25">
@@ -1806,10 +1806,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>67.9347463709651</v>
+        <v>125.2</v>
       </c>
       <c r="C25" t="n">
-        <v>93.4966060991692</v>
+        <v>124.233752033267</v>
       </c>
     </row>
     <row r="26">
@@ -1817,10 +1817,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>85.4619109346741</v>
+        <v>125.8</v>
       </c>
       <c r="C26" t="n">
-        <v>32.9876211486752</v>
+        <v>123.645067104677</v>
       </c>
     </row>
     <row r="27">
@@ -1828,10 +1828,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>106.571002935539</v>
+        <v>124.7</v>
       </c>
       <c r="C27" t="n">
-        <v>37.7255489799317</v>
+        <v>123.660355096549</v>
       </c>
     </row>
     <row r="28">
@@ -1839,10 +1839,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>127.991774525582</v>
+        <v>120.1</v>
       </c>
       <c r="C28" t="n">
-        <v>67.2121502709499</v>
+        <v>119.716918933167</v>
       </c>
     </row>
     <row r="29">
@@ -1850,10 +1850,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>151.926236361866</v>
+        <v>118.7</v>
       </c>
       <c r="C29" t="n">
-        <v>99.9730279293584</v>
+        <v>118.731066101836</v>
       </c>
     </row>
     <row r="30">
@@ -1861,10 +1861,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>179.424885143363</v>
+        <v>118.1</v>
       </c>
       <c r="C30" t="n">
-        <v>139.326894489975</v>
+        <v>118.507041805188</v>
       </c>
     </row>
     <row r="31">
@@ -1872,10 +1872,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>215.130437286893</v>
+        <v>119.9</v>
       </c>
       <c r="C31" t="n">
-        <v>194.170366384243</v>
+        <v>121.06366029835</v>
       </c>
     </row>
     <row r="32">
@@ -1883,10 +1883,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>263.298142195428</v>
+        <v>122.39</v>
       </c>
       <c r="C32" t="n">
-        <v>272.029773203351</v>
+        <v>123.924168122118</v>
       </c>
     </row>
     <row r="33">
@@ -1894,10 +1894,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>331.755659166239</v>
+        <v>126</v>
       </c>
       <c r="C33" t="n">
-        <v>389.496921965237</v>
+        <v>127.801903217615</v>
       </c>
     </row>
     <row r="34">
@@ -1905,10 +1905,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>408.059460774474</v>
+        <v>123</v>
       </c>
       <c r="C34" t="n">
-        <v>495.272370198101</v>
+        <v>123.800854492609</v>
       </c>
     </row>
     <row r="35">
@@ -1916,10 +1916,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>487.631055625497</v>
+        <v>119.5</v>
       </c>
       <c r="C35" t="n">
-        <v>568.19589623207</v>
+        <v>119.378043185316</v>
       </c>
     </row>
     <row r="36">
@@ -1927,10 +1927,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>567.553785642516</v>
+        <v>116.39</v>
       </c>
       <c r="C36" t="n">
-        <v>628.366170522217</v>
+        <v>115.414680624442</v>
       </c>
     </row>
     <row r="37">
@@ -1938,10 +1938,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>638.49800884783</v>
+        <v>112.5</v>
       </c>
       <c r="C37" t="n">
-        <v>670.873242757006</v>
+        <v>111.650879922265</v>
       </c>
     </row>
     <row r="38">
@@ -1949,10 +1949,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>752.789152431592</v>
+        <v>117.9</v>
       </c>
       <c r="C38" t="n">
-        <v>690.418430999331</v>
+        <v>115.88038989368</v>
       </c>
     </row>
     <row r="39">
@@ -1960,10 +1960,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>834.24093872469</v>
+        <v>110.82</v>
       </c>
       <c r="C39" t="n">
-        <v>752.471190213997</v>
+        <v>109.906955092986</v>
       </c>
     </row>
     <row r="40">
@@ -1971,10 +1971,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>896.058192284189</v>
+        <v>107.41</v>
       </c>
       <c r="C40" t="n">
-        <v>823.426747324293</v>
+        <v>107.089514486459</v>
       </c>
     </row>
     <row r="41">
@@ -1982,10 +1982,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>972.133532809117</v>
+        <v>108.49</v>
       </c>
       <c r="C41" t="n">
-        <v>907.926540667023</v>
+        <v>108.509735098025</v>
       </c>
     </row>
     <row r="42">
@@ -1993,10 +1993,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>1039.30795992623</v>
+        <v>106.91</v>
       </c>
       <c r="C42" t="n">
-        <v>989.141162193225</v>
+        <v>107.250599213401</v>
       </c>
     </row>
     <row r="43">
@@ -2004,10 +2004,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>1101.6664375218</v>
+        <v>106</v>
       </c>
       <c r="C43" t="n">
-        <v>1074.43040896092</v>
+        <v>106.912770521204</v>
       </c>
     </row>
     <row r="44">
@@ -2015,10 +2015,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>1160.38525864171</v>
+        <v>105.33</v>
       </c>
       <c r="C44" t="n">
-        <v>1167.50198631541</v>
+        <v>106.542850893628</v>
       </c>
     </row>
     <row r="45">
@@ -2026,10 +2026,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>1213.99505759096</v>
+        <v>104.62</v>
       </c>
       <c r="C45" t="n">
-        <v>1281.73067969173</v>
+        <v>106.10242410379</v>
       </c>
     </row>
     <row r="46">
@@ -2037,10 +2037,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>1310.6290641752</v>
+        <v>107.96</v>
       </c>
       <c r="C46" t="n">
-        <v>1417.23513377275</v>
+        <v>108.726872027875</v>
       </c>
     </row>
     <row r="47">
@@ -2048,10 +2048,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>1507.22342380148</v>
+        <v>115</v>
       </c>
       <c r="C47" t="n">
-        <v>1603.30418500947</v>
+        <v>114.965661176076</v>
       </c>
     </row>
     <row r="48">
@@ -2059,10 +2059,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>1727.42876601888</v>
+        <v>114.61</v>
       </c>
       <c r="C48" t="n">
-        <v>1805.17993526421</v>
+        <v>113.758459456105</v>
       </c>
     </row>
     <row r="49">
@@ -2070,10 +2070,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>2011.41805515238</v>
+        <v>116.44</v>
       </c>
       <c r="C49" t="n">
-        <v>2054.93258990216</v>
+        <v>115.660446115345</v>
       </c>
     </row>
     <row r="50">
@@ -2081,10 +2081,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>2368.84704355296</v>
+        <v>117.77</v>
       </c>
       <c r="C50" t="n">
-        <v>2298.22037513683</v>
+        <v>115.808853830789</v>
       </c>
     </row>
     <row r="51">
@@ -2092,10 +2092,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>2629.89398775249</v>
+        <v>111.02</v>
       </c>
       <c r="C51" t="n">
-        <v>2537.96422060802</v>
+        <v>110.152836294288</v>
       </c>
     </row>
     <row r="52">
@@ -2103,10 +2103,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>2865.00651025756</v>
+        <v>108.94</v>
       </c>
       <c r="C52" t="n">
-        <v>2779.68866208977</v>
+        <v>108.638371823871</v>
       </c>
     </row>
     <row r="53">
@@ -2114,10 +2114,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>3107.67256167638</v>
+        <v>108.47</v>
       </c>
       <c r="C53" t="n">
-        <v>3032.44806652878</v>
+        <v>108.458912396536</v>
       </c>
     </row>
     <row r="54">
@@ -2125,10 +2125,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>3354.11099581732</v>
+        <v>107.93</v>
       </c>
       <c r="C54" t="n">
-        <v>3292.26790762426</v>
+        <v>108.180118341837</v>
       </c>
     </row>
     <row r="55">
@@ -2136,10 +2136,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>3577.49478813875</v>
+        <v>106.66</v>
       </c>
       <c r="C55" t="n">
-        <v>3540.68112935291</v>
+        <v>107.393833989987</v>
       </c>
     </row>
     <row r="56">
@@ -2147,10 +2147,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>3769.96400774062</v>
+        <v>105.38</v>
       </c>
       <c r="C56" t="n">
-        <v>3772.81575248962</v>
+        <v>106.415076119426</v>
       </c>
     </row>
     <row r="57">
@@ -2158,10 +2158,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>3941.87436649359</v>
+        <v>104.56</v>
       </c>
       <c r="C57" t="n">
-        <v>4016.53714955473</v>
+        <v>105.963190964518</v>
       </c>
     </row>
     <row r="58">
@@ -2169,10 +2169,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>4117.6819632392</v>
+        <v>104.46</v>
       </c>
       <c r="C58" t="n">
-        <v>4236.38839672255</v>
+        <v>105.205313378592</v>
       </c>
     </row>
     <row r="59">
@@ -2180,10 +2180,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>4312.03655190409</v>
+        <v>104.72</v>
       </c>
       <c r="C59" t="n">
-        <v>4426.30100172227</v>
+        <v>104.719462945601</v>
       </c>
     </row>
     <row r="60">
@@ -2191,10 +2191,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>4508.66541867092</v>
+        <v>104.56</v>
       </c>
       <c r="C60" t="n">
-        <v>4597.01894391645</v>
+        <v>103.884010692682</v>
       </c>
     </row>
     <row r="61">
@@ -2202,10 +2202,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>4652.94271206839</v>
+        <v>103.2</v>
       </c>
       <c r="C61" t="n">
-        <v>4705.61780903445</v>
+        <v>102.640026238062</v>
       </c>
     </row>
     <row r="62">
@@ -2213,10 +2213,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="n">
-        <v>4844.1786575344</v>
+        <v>104.11</v>
       </c>
       <c r="C62" t="n">
-        <v>4765.03564750311</v>
+        <v>102.509040686977</v>
       </c>
     </row>
     <row r="63">
@@ -2224,10 +2224,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>4979.33124207961</v>
+        <v>102.79</v>
       </c>
       <c r="C63" t="n">
-        <v>4874.05111112383</v>
+        <v>102.109442457613</v>
       </c>
     </row>
     <row r="64">
@@ -2235,10 +2235,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="n">
-        <v>5118.75251685784</v>
+        <v>102.8</v>
       </c>
       <c r="C64" t="n">
-        <v>5019.64327214892</v>
+        <v>102.568496563197</v>
       </c>
     </row>
     <row r="65">
@@ -2246,10 +2246,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="n">
-        <v>5229.31757122197</v>
+        <v>102.16</v>
       </c>
       <c r="C65" t="n">
-        <v>5143.31896654084</v>
+        <v>102.158343621761</v>
       </c>
     </row>
     <row r="66">
@@ -2257,10 +2257,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>5312.98665236152</v>
+        <v>101.6</v>
       </c>
       <c r="C66" t="n">
-        <v>5242.51158850547</v>
+        <v>101.784326338356</v>
       </c>
     </row>
     <row r="67">
@@ -2268,10 +2268,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="n">
-        <v>5375.14859619415</v>
+        <v>101.17</v>
       </c>
       <c r="C67" t="n">
-        <v>5332.80969840625</v>
+        <v>101.718127629143</v>
       </c>
     </row>
     <row r="68">
@@ -2279,10 +2279,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>5413.84966608675</v>
+        <v>100.72</v>
       </c>
       <c r="C68" t="n">
-        <v>5413.48001634966</v>
+        <v>101.539919382595</v>
       </c>
     </row>
     <row r="69">
@@ -2290,10 +2290,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="n">
-        <v>5402.48058178797</v>
+        <v>99.79</v>
       </c>
       <c r="C69" t="n">
-        <v>5488.39108633389</v>
+        <v>101.049418065972</v>
       </c>
     </row>
     <row r="70">
@@ -2301,10 +2301,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="n">
-        <v>5420.30876770787</v>
+        <v>100.33</v>
       </c>
       <c r="C70" t="n">
-        <v>5556.52332989714</v>
+        <v>101.036808838704</v>
       </c>
     </row>
     <row r="71">
@@ -2312,10 +2312,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>5485.35247292036</v>
+        <v>101.2</v>
       </c>
       <c r="C71" t="n">
-        <v>5618.75874665249</v>
+        <v>101.219442434599</v>
       </c>
     </row>
     <row r="72">
@@ -2323,10 +2323,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>5588.47709941126</v>
+        <v>101.88</v>
       </c>
       <c r="C72" t="n">
-        <v>5694.3147514258</v>
+        <v>101.297063492984</v>
       </c>
     </row>
     <row r="73">
@@ -2334,10 +2334,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>5667.8334742229</v>
+        <v>101.42</v>
       </c>
       <c r="C73" t="n">
-        <v>5730.4839284993</v>
+        <v>100.93172682755</v>
       </c>
     </row>
     <row r="74">
@@ -2345,10 +2345,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>5800.46077751972</v>
+        <v>102.34</v>
       </c>
       <c r="C74" t="n">
-        <v>5709.56701582363</v>
+        <v>100.85031681008</v>
       </c>
     </row>
     <row r="75">
@@ -2356,10 +2356,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="n">
-        <v>5889.78787349352</v>
+        <v>101.54</v>
       </c>
       <c r="C75" t="n">
-        <v>5765.74432141924</v>
+        <v>100.957476174384</v>
       </c>
     </row>
     <row r="76">
@@ -2367,10 +2367,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="n">
-        <v>5974.01184008448</v>
+        <v>101.43</v>
       </c>
       <c r="C76" t="n">
-        <v>5859.08211953115</v>
+        <v>101.26190836723</v>
       </c>
     </row>
     <row r="77">
@@ -2378,10 +2378,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>6031.36235374929</v>
+        <v>100.96</v>
       </c>
       <c r="C77" t="n">
-        <v>5932.92671606794</v>
+        <v>100.97632017687</v>
       </c>
     </row>
     <row r="78">
@@ -2389,10 +2389,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="n">
-        <v>6088.05715987453</v>
+        <v>100.94</v>
       </c>
       <c r="C78" t="n">
-        <v>6007.57142273083</v>
+        <v>101.080173673108</v>
       </c>
     </row>
     <row r="79">
@@ -2400,10 +2400,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="n">
-        <v>6155.02578863315</v>
+        <v>101.1</v>
       </c>
       <c r="C79" t="n">
-        <v>6106.65889422938</v>
+        <v>101.52044573943</v>
       </c>
     </row>
     <row r="80">
@@ -2411,10 +2411,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>6212.26752846744</v>
+        <v>100.93</v>
       </c>
       <c r="C80" t="n">
-        <v>6211.69922743174</v>
+        <v>101.59652932057</v>
       </c>
     </row>
     <row r="81">
@@ -2422,10 +2422,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>6203.57035392759</v>
+        <v>99.86</v>
       </c>
       <c r="C81" t="n">
-        <v>6302.42766062317</v>
+        <v>101.030185634669</v>
       </c>
     </row>
     <row r="82">
@@ -2433,10 +2433,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>6184.95964286581</v>
+        <v>99.7</v>
       </c>
       <c r="C82" t="n">
-        <v>6342.85572444373</v>
+        <v>100.3762092894</v>
       </c>
     </row>
     <row r="83">
@@ -2444,10 +2444,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>6195.47407425868</v>
+        <v>100.17</v>
       </c>
       <c r="C83" t="n">
-        <v>6349.40193202517</v>
+        <v>100.212552530819</v>
       </c>
     </row>
     <row r="84">
@@ -2455,10 +2455,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="n">
-        <v>6233.26646611166</v>
+        <v>100.61</v>
       </c>
       <c r="C84" t="n">
-        <v>6360.76366112385</v>
+        <v>100.115452129731</v>
       </c>
     </row>
     <row r="85">
@@ -2466,10 +2466,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>6293.10582418633</v>
+        <v>100.96</v>
       </c>
       <c r="C85" t="n">
-        <v>6364.5140916088</v>
+        <v>100.518855745979</v>
       </c>
     </row>
     <row r="86">
@@ -2477,10 +2477,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>6388.13172213154</v>
+        <v>101.51</v>
       </c>
       <c r="C86" t="n">
-        <v>6278.16499611318</v>
+        <v>100.092718976794</v>
       </c>
     </row>
     <row r="87">
@@ -2488,10 +2488,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>6444.98609445851</v>
+        <v>100.89</v>
       </c>
       <c r="C87" t="n">
-        <v>6293.74611090782</v>
+        <v>100.389799753456</v>
       </c>
     </row>
     <row r="88">
@@ -2499,10 +2499,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>6486.23400546304</v>
+        <v>100.64</v>
       </c>
       <c r="C88" t="n">
-        <v>6350.70186717637</v>
+        <v>100.557965267685</v>
       </c>
     </row>
     <row r="89">
@@ -2510,10 +2510,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="n">
-        <v>6510.88169468381</v>
+        <v>100.38</v>
       </c>
       <c r="C89" t="n">
-        <v>6397.50428983965</v>
+        <v>100.418641846389</v>
       </c>
     </row>
     <row r="90">
@@ -2521,10 +2521,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>6543.43610315722</v>
+        <v>100.5</v>
       </c>
       <c r="C90" t="n">
-        <v>6449.9780051696</v>
+        <v>100.614156894588</v>
       </c>
     </row>
     <row r="91">
@@ -2532,10 +2532,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="n">
-        <v>6548.67085203975</v>
+        <v>100.08</v>
       </c>
       <c r="C91" t="n">
-        <v>6488.76287658236</v>
+        <v>100.417244459391</v>
       </c>
     </row>
     <row r="92">
@@ -2543,10 +2543,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="n">
-        <v>6559.80359248822</v>
+        <v>100.17</v>
       </c>
       <c r="C92" t="n">
-        <v>6566.0142030117</v>
+        <v>100.73945753547</v>
       </c>
     </row>
     <row r="93">
@@ -2554,10 +2554,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>6800.54838433253</v>
+        <v>103.67</v>
       </c>
       <c r="C93" t="n">
-        <v>6914.01905833768</v>
+        <v>104.808405304724</v>
       </c>
     </row>
     <row r="94">
@@ -2565,10 +2565,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>9413.99912843153</v>
+        <v>138.43</v>
       </c>
       <c r="C94" t="n">
-        <v>9601.58177622171</v>
+        <v>139.297491870602</v>
       </c>
     </row>
     <row r="95">
@@ -2576,10 +2576,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>9841.39468886232</v>
+        <v>104.54</v>
       </c>
       <c r="C95" t="n">
-        <v>10026.4499755417</v>
+        <v>104.569356558281</v>
       </c>
     </row>
     <row r="96">
@@ -2587,10 +2587,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>10399.4017677208</v>
+        <v>105.67</v>
       </c>
       <c r="C96" t="n">
-        <v>10552.2958944132</v>
+        <v>105.211410444151</v>
       </c>
     </row>
     <row r="97">
@@ -2598,10 +2598,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>11606.7723129532</v>
+        <v>111.61</v>
       </c>
       <c r="C97" t="n">
-        <v>11714.9933213582</v>
+        <v>111.157709183233</v>
       </c>
     </row>
     <row r="98">
@@ -2609,10 +2609,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>12579.4198327787</v>
+        <v>108.38</v>
       </c>
       <c r="C98" t="n">
-        <v>12445.4120295929</v>
+        <v>106.893306355024</v>
       </c>
     </row>
     <row r="99">
@@ -2620,10 +2620,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>13098.9498718724</v>
+        <v>104.13</v>
       </c>
       <c r="C99" t="n">
-        <v>12931.6643043961</v>
+        <v>103.676462618493</v>
       </c>
     </row>
     <row r="100">
@@ -2631,10 +2631,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>13464.4105732977</v>
+        <v>102.79</v>
       </c>
       <c r="C100" t="n">
-        <v>13316.3391363158</v>
+        <v>102.781820276796</v>
       </c>
     </row>
     <row r="101">
@@ -2642,10 +2642,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>13872.3822136686</v>
+        <v>103.03</v>
       </c>
       <c r="C101" t="n">
-        <v>13735.2392111391</v>
+        <v>103.084318418523</v>
       </c>
     </row>
     <row r="102">
@@ -2653,10 +2653,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>14180.349098812</v>
+        <v>102.22</v>
       </c>
       <c r="C102" t="n">
-        <v>14061.660170695</v>
+        <v>102.304002766361</v>
       </c>
     </row>
     <row r="103">
@@ -2664,10 +2664,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>14451.1937665994</v>
+        <v>101.91</v>
       </c>
       <c r="C103" t="n">
-        <v>14377.7467006842</v>
+        <v>102.171115856309</v>
       </c>
     </row>
     <row r="104">
@@ -2675,10 +2675,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="n">
-        <v>14858.7174308175</v>
+        <v>102.82</v>
       </c>
       <c r="C104" t="n">
-        <v>14824.5908701789</v>
+        <v>103.335375126594</v>
       </c>
     </row>
     <row r="105">
@@ -2686,10 +2686,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>15031.0785530149</v>
+        <v>101.16</v>
       </c>
       <c r="C105" t="n">
-        <v>15154.1587825825</v>
+        <v>102.215589542154</v>
       </c>
     </row>
     <row r="106">
@@ -2697,10 +2697,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="n">
-        <v>15253.5385155996</v>
+        <v>101.48</v>
       </c>
       <c r="C106" t="n">
-        <v>15452.8125351342</v>
+        <v>102.07510460993</v>
       </c>
     </row>
     <row r="107">
@@ -2708,10 +2708,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="n">
-        <v>15462.5119932633</v>
+        <v>101.37</v>
       </c>
       <c r="C107" t="n">
-        <v>15664.7555295068</v>
+        <v>101.394876651854</v>
       </c>
     </row>
     <row r="108">
@@ -2719,10 +2719,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="n">
-        <v>15652.7008907804</v>
+        <v>101.23</v>
       </c>
       <c r="C108" t="n">
-        <v>15831.7463166792</v>
+        <v>100.899354063813</v>
       </c>
     </row>
     <row r="109">
@@ -2730,10 +2730,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>15849.9249220042</v>
+        <v>101.26</v>
       </c>
       <c r="C109" t="n">
-        <v>15977.619678437</v>
+        <v>100.928487405291</v>
       </c>
     </row>
     <row r="110">
@@ -2741,10 +2741,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>16219.2281726869</v>
+        <v>102.33</v>
       </c>
       <c r="C110" t="n">
-        <v>16096.6818587887</v>
+        <v>100.969302858121</v>
       </c>
     </row>
     <row r="111">
@@ -2752,10 +2752,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>16387.9081456829</v>
+        <v>101.04</v>
       </c>
       <c r="C111" t="n">
-        <v>16214.1825247489</v>
+        <v>100.657621797566</v>
       </c>
     </row>
     <row r="112">
@@ -2763,10 +2763,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>16492.7907578153</v>
+        <v>100.64</v>
       </c>
       <c r="C112" t="n">
-        <v>16333.3254805619</v>
+        <v>100.670145354635</v>
       </c>
     </row>
     <row r="113">
@@ -2774,10 +2774,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>16639.5765955598</v>
+        <v>100.89</v>
       </c>
       <c r="C113" t="n">
-        <v>16498.0469506035</v>
+        <v>100.946617724087</v>
       </c>
     </row>
     <row r="114">
@@ -2785,10 +2785,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>16930.7691859821</v>
+        <v>101.75</v>
       </c>
       <c r="C114" t="n">
-        <v>16802.4310421279</v>
+        <v>101.778635260712</v>
       </c>
     </row>
     <row r="115">
@@ -2796,10 +2796,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>17362.5038002247</v>
+        <v>102.55</v>
       </c>
       <c r="C115" t="n">
-        <v>17255.6864755604</v>
+        <v>102.722229776405</v>
       </c>
     </row>
     <row r="116">
@@ -2807,10 +2807,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>17673.2926182487</v>
+        <v>101.79</v>
       </c>
       <c r="C116" t="n">
-        <v>17631.2621827912</v>
+        <v>102.240381418468</v>
       </c>
     </row>
     <row r="117">
@@ -2818,10 +2818,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>17846.4908859075</v>
+        <v>100.98</v>
       </c>
       <c r="C117" t="n">
-        <v>17971.1183449113</v>
+        <v>102.000903683989</v>
       </c>
     </row>
     <row r="118">
@@ -2829,10 +2829,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>18082.0645656015</v>
+        <v>101.32</v>
       </c>
       <c r="C118" t="n">
-        <v>18310.0340390516</v>
+        <v>101.895152589937</v>
       </c>
     </row>
     <row r="119">
@@ -2840,10 +2840,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="n">
-        <v>18463.5961279357</v>
+        <v>102.11</v>
       </c>
       <c r="C119" t="n">
-        <v>18684.4097354999</v>
+        <v>102.122662030344</v>
       </c>
     </row>
     <row r="120">
@@ -2851,10 +2851,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>18744.2427890803</v>
+        <v>101.52</v>
       </c>
       <c r="C120" t="n">
-        <v>18951.4839867952</v>
+        <v>101.261177188761</v>
       </c>
     </row>
     <row r="121">
@@ -2862,10 +2862,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>19051.6483708212</v>
+        <v>101.64</v>
       </c>
       <c r="C121" t="n">
-        <v>19202.2244599984</v>
+        <v>101.353257135856</v>
       </c>
     </row>
     <row r="122">
@@ -2873,10 +2873,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="n">
-        <v>19577.4738658559</v>
+        <v>102.76</v>
       </c>
       <c r="C122" t="n">
-        <v>19457.217555035</v>
+        <v>101.404514472274</v>
       </c>
     </row>
     <row r="123">
@@ -2884,10 +2884,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="n">
-        <v>20023.8402699974</v>
+        <v>102.28</v>
       </c>
       <c r="C123" t="n">
-        <v>19834.9458022638</v>
+        <v>101.908594264962</v>
       </c>
     </row>
     <row r="124">
@@ -2895,10 +2895,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>20396.2836990193</v>
+        <v>101.86</v>
       </c>
       <c r="C124" t="n">
-        <v>20218.3611735253</v>
+        <v>101.872066909541</v>
       </c>
     </row>
     <row r="125">
@@ -2906,10 +2906,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>20761.3771772318</v>
+        <v>101.79</v>
       </c>
       <c r="C125" t="n">
-        <v>20595.7139761376</v>
+        <v>101.828047327265</v>
       </c>
     </row>
     <row r="126">
@@ -2917,10 +2917,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>21130.9296909865</v>
+        <v>101.78</v>
       </c>
       <c r="C126" t="n">
-        <v>20973.7966411021</v>
+        <v>101.777552745665</v>
       </c>
     </row>
     <row r="127">
@@ -2928,10 +2928,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="n">
-        <v>21473.2507519805</v>
+        <v>101.62</v>
       </c>
       <c r="C127" t="n">
-        <v>21339.4790201745</v>
+        <v>101.788956464814</v>
       </c>
     </row>
     <row r="128">
@@ -2939,10 +2939,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="n">
-        <v>21569.8803803644</v>
+        <v>100.45</v>
       </c>
       <c r="C128" t="n">
-        <v>21513.923258323</v>
+        <v>100.881146106837</v>
       </c>
     </row>
     <row r="129">
@@ -2950,10 +2950,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>21572.0373684024</v>
+        <v>100.01</v>
       </c>
       <c r="C129" t="n">
-        <v>21709.0567055947</v>
+        <v>101.018731832521</v>
       </c>
     </row>
     <row r="130">
@@ -2961,10 +2961,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="n">
-        <v>21701.4695926129</v>
+        <v>100.6</v>
       </c>
       <c r="C130" t="n">
-        <v>21952.0717976461</v>
+        <v>101.176929888223</v>
       </c>
     </row>
     <row r="131">
@@ -2972,10 +2972,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>21938.0156111723</v>
+        <v>101.09</v>
       </c>
       <c r="C131" t="n">
-        <v>22195.9659736295</v>
+        <v>101.110483158052</v>
       </c>
     </row>
     <row r="132">
@@ -2983,10 +2983,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>22236.3726234843</v>
+        <v>101.36</v>
       </c>
       <c r="C132" t="n">
-        <v>22468.201824826</v>
+        <v>101.137345335827</v>
       </c>
     </row>
     <row r="133">
@@ -2994,10 +2994,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>22592.15458546</v>
+        <v>101.6</v>
       </c>
       <c r="C133" t="n">
-        <v>22779.269945358</v>
+        <v>101.325819720814</v>
       </c>
     </row>
     <row r="134">
@@ -3005,10 +3005,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>23290.2521621508</v>
+        <v>103.09</v>
       </c>
       <c r="C134" t="n">
-        <v>23155.0952563835</v>
+        <v>101.727719517603</v>
       </c>
     </row>
     <row r="135">
@@ -3016,10 +3016,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>23560.4190872317</v>
+        <v>101.16</v>
       </c>
       <c r="C135" t="n">
-        <v>23365.1841274595</v>
+        <v>100.805388678123</v>
       </c>
     </row>
     <row r="136">
@@ -3027,10 +3027,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>23814.8716133738</v>
+        <v>101.08</v>
       </c>
       <c r="C136" t="n">
-        <v>23610.3885719593</v>
+        <v>101.082931306167</v>
       </c>
     </row>
     <row r="137">
@@ -3038,10 +3038,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="n">
-        <v>24091.1241240889</v>
+        <v>101.16</v>
       </c>
       <c r="C137" t="n">
-        <v>23909.3059301304</v>
+        <v>101.188233262636</v>
       </c>
     </row>
     <row r="138">
@@ -3049,10 +3049,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>24498.264121786</v>
+        <v>101.69</v>
       </c>
       <c r="C138" t="n">
-        <v>24301.3186968952</v>
+        <v>101.687253555635</v>
       </c>
     </row>
     <row r="139">
@@ -3060,10 +3060,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="n">
-        <v>24628.1049216315</v>
+        <v>100.53</v>
       </c>
       <c r="C139" t="n">
-        <v>24493.736787642</v>
+        <v>100.718215993612</v>
       </c>
     </row>
     <row r="140">
@@ -3071,10 +3071,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>24805.4272770673</v>
+        <v>100.72</v>
       </c>
       <c r="C140" t="n">
-        <v>24731.4146257608</v>
+        <v>101.110197047468</v>
       </c>
     </row>
     <row r="141">
@@ -3082,10 +3082,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>24827.7521616166</v>
+        <v>100.09</v>
       </c>
       <c r="C141" t="n">
-        <v>24974.6467622091</v>
+        <v>101.071790294025</v>
       </c>
     </row>
     <row r="142">
@@ -3093,10 +3093,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="n">
-        <v>24927.0631702631</v>
+        <v>100.4</v>
       </c>
       <c r="C142" t="n">
-        <v>25203.6339561718</v>
+        <v>100.966622823324</v>
       </c>
     </row>
     <row r="143">
@@ -3104,10 +3104,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="n">
-        <v>25193.7827461849</v>
+        <v>101.07</v>
       </c>
       <c r="C143" t="n">
-        <v>25481.423833499</v>
+        <v>101.092252402948</v>
       </c>
     </row>
     <row r="144">
@@ -3115,10 +3115,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>25599.4026483985</v>
+        <v>101.61</v>
       </c>
       <c r="C144" t="n">
-        <v>25856.9862680013</v>
+        <v>101.411668525218</v>
       </c>
     </row>
     <row r="145">
@@ -3126,10 +3126,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>25993.6334491838</v>
+        <v>101.54</v>
       </c>
       <c r="C145" t="n">
-        <v>26196.1666425485</v>
+        <v>101.287332452043</v>
       </c>
     </row>
     <row r="146">
@@ -3137,10 +3137,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>26617.4806519642</v>
+        <v>102.4</v>
       </c>
       <c r="C146" t="n">
-        <v>26492.0561011611</v>
+        <v>101.069507087383</v>
       </c>
     </row>
     <row r="147">
@@ -3148,10 +3148,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>27051.3455865913</v>
+        <v>101.63</v>
       </c>
       <c r="C147" t="n">
-        <v>26831.4032845149</v>
+        <v>101.274161769923</v>
       </c>
     </row>
     <row r="148">
@@ -3159,10 +3159,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>27335.3847152504</v>
+        <v>101.05</v>
       </c>
       <c r="C148" t="n">
-        <v>27115.5562792954</v>
+        <v>101.03719299817</v>
       </c>
     </row>
     <row r="149">
@@ -3170,10 +3170,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>27614.205639346</v>
+        <v>101.02</v>
       </c>
       <c r="C149" t="n">
-        <v>27398.3168766853</v>
+        <v>101.047815097996</v>
       </c>
     </row>
     <row r="150">
@@ -3181,10 +3181,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="n">
-        <v>27835.1192844608</v>
+        <v>100.8</v>
       </c>
       <c r="C150" t="n">
-        <v>27634.8145620826</v>
+        <v>100.826640797155</v>
       </c>
     </row>
     <row r="151">
@@ -3192,10 +3192,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="n">
-        <v>28057.8002387365</v>
+        <v>100.8</v>
       </c>
       <c r="C151" t="n">
-        <v>27908.2978474367</v>
+        <v>100.99386437973</v>
       </c>
     </row>
     <row r="152">
@@ -3203,10 +3203,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>28257.0106204315</v>
+        <v>100.71</v>
       </c>
       <c r="C152" t="n">
-        <v>28167.6478357928</v>
+        <v>101.046464245029</v>
       </c>
     </row>
     <row r="153">
@@ -3214,10 +3214,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>28141.1568768877</v>
+        <v>99.59</v>
       </c>
       <c r="C153" t="n">
-        <v>28299.737436165</v>
+        <v>100.523448790403</v>
       </c>
     </row>
     <row r="154">
@@ -3225,10 +3225,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="n">
-        <v>28236.8368102691</v>
+        <v>100.34</v>
       </c>
       <c r="C154" t="n">
-        <v>28530.2085323571</v>
+        <v>100.885891415114</v>
       </c>
     </row>
     <row r="155">
@@ -3236,10 +3236,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>28519.2051783718</v>
+        <v>101</v>
       </c>
       <c r="C155" t="n">
-        <v>28820.399124802</v>
+        <v>101.023327924954</v>
       </c>
     </row>
     <row r="156">
@@ -3247,10 +3247,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>28792.9895480842</v>
+        <v>100.96</v>
       </c>
       <c r="C156" t="n">
-        <v>29078.6781591249</v>
+        <v>100.80384039943</v>
       </c>
     </row>
     <row r="157">
@@ -3258,10 +3258,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>29109.7124331131</v>
+        <v>101.1</v>
       </c>
       <c r="C157" t="n">
-        <v>29333.146798351</v>
+        <v>100.885605850874</v>
       </c>
     </row>
     <row r="158">
@@ -3269,10 +3269,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>29619.1324006926</v>
+        <v>101.75</v>
       </c>
       <c r="C158" t="n">
-        <v>29492.3363380285</v>
+        <v>100.456345349338</v>
       </c>
     </row>
     <row r="159">
@@ -3280,10 +3280,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>29912.3618114595</v>
+        <v>100.99</v>
       </c>
       <c r="C159" t="n">
-        <v>29680.2017833326</v>
+        <v>100.640743809226</v>
       </c>
     </row>
     <row r="160">
@@ -3291,10 +3291,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="n">
-        <v>30136.7045250454</v>
+        <v>100.75</v>
       </c>
       <c r="C160" t="n">
-        <v>29897.2379349228</v>
+        <v>100.721716853279</v>
       </c>
     </row>
     <row r="161">
@@ -3302,10 +3302,10 @@
         <v>162</v>
       </c>
       <c r="B161" t="n">
-        <v>30435.0578998434</v>
+        <v>100.99</v>
       </c>
       <c r="C161" t="n">
-        <v>30198.6295124387</v>
+        <v>101.021202209668</v>
       </c>
     </row>
     <row r="162">
@@ -3313,10 +3313,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>30660.2773283022</v>
+        <v>100.74</v>
       </c>
       <c r="C162" t="n">
-        <v>30448.659206458</v>
+        <v>100.795576722965</v>
       </c>
     </row>
     <row r="163">
@@ -3324,10 +3324,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>30899.4274914629</v>
+        <v>100.78</v>
       </c>
       <c r="C163" t="n">
-        <v>30741.3657136099</v>
+        <v>100.973763929204</v>
       </c>
     </row>
     <row r="164">
@@ -3335,10 +3335,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>31183.7022243844</v>
+        <v>100.92</v>
       </c>
       <c r="C164" t="n">
-        <v>31096.5192464616</v>
+        <v>101.213930050494</v>
       </c>
     </row>
     <row r="165">
@@ -3346,10 +3346,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="n">
-        <v>31314.6737737268</v>
+        <v>100.42</v>
       </c>
       <c r="C165" t="n">
-        <v>31468.6744742087</v>
+        <v>101.300106930692</v>
       </c>
     </row>
     <row r="166">
@@ -3357,10 +3357,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>31449.3268709538</v>
+        <v>100.43</v>
       </c>
       <c r="C166" t="n">
-        <v>31762.5130826255</v>
+        <v>100.951100580542</v>
       </c>
     </row>
     <row r="167">
@@ -3368,10 +3368,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>31807.8491972827</v>
+        <v>101.14</v>
       </c>
       <c r="C167" t="n">
-        <v>32128.1465039425</v>
+        <v>101.177578026452</v>
       </c>
     </row>
     <row r="168">
@@ -3379,10 +3379,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="n">
-        <v>32160.9163233726</v>
+        <v>101.11</v>
       </c>
       <c r="C168" t="n">
-        <v>32463.3367251127</v>
+        <v>100.997945683974</v>
       </c>
     </row>
     <row r="169">
@@ -3390,10 +3390,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>32527.550769459</v>
+        <v>101.14</v>
       </c>
       <c r="C169" t="n">
-        <v>32789.8231824318</v>
+        <v>100.962730762676</v>
       </c>
     </row>
     <row r="170">
@@ -3401,10 +3401,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>33379.7725996188</v>
+        <v>102.62</v>
       </c>
       <c r="C170" t="n">
-        <v>33237.923635812</v>
+        <v>101.322602672203</v>
       </c>
     </row>
     <row r="171">
@@ -3412,10 +3412,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>33790.3438025942</v>
+        <v>101.23</v>
       </c>
       <c r="C171" t="n">
-        <v>33553.5802048134</v>
+        <v>100.865791626332</v>
       </c>
     </row>
     <row r="172">
@@ -3423,10 +3423,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>34243.1344095489</v>
+        <v>101.34</v>
       </c>
       <c r="C172" t="n">
-        <v>33973.166248201</v>
+        <v>101.28963541709</v>
       </c>
     </row>
     <row r="173">
@@ -3434,10 +3434,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="n">
-        <v>34626.6575149359</v>
+        <v>101.12</v>
       </c>
       <c r="C173" t="n">
-        <v>34373.7319646285</v>
+        <v>101.163742588777</v>
       </c>
     </row>
     <row r="174">
@@ -3445,10 +3445,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>34903.6707750553</v>
+        <v>100.8</v>
       </c>
       <c r="C174" t="n">
-        <v>34678.0626068493</v>
+        <v>100.872864420737</v>
       </c>
     </row>
     <row r="175">
@@ -3456,10 +3456,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>35127.0542680157</v>
+        <v>100.64</v>
       </c>
       <c r="C175" t="n">
-        <v>34958.7385345753</v>
+        <v>100.835321798931</v>
       </c>
     </row>
     <row r="176">
@@ -3467,10 +3467,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>35288.6387176486</v>
+        <v>100.46</v>
       </c>
       <c r="C176" t="n">
-        <v>35191.1552356772</v>
+        <v>100.727623774207</v>
       </c>
     </row>
     <row r="177">
@@ -3478,10 +3478,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>35239.2346234439</v>
+        <v>99.86</v>
       </c>
       <c r="C177" t="n">
-        <v>35402.6538822209</v>
+        <v>100.68491990708</v>
       </c>
     </row>
     <row r="178">
@@ -3489,10 +3489,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="n">
-        <v>35327.3327100025</v>
+        <v>100.25</v>
       </c>
       <c r="C178" t="n">
-        <v>35641.4843126934</v>
+        <v>100.743998192402</v>
       </c>
     </row>
     <row r="179">
@@ -3500,10 +3500,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>35521.6330399075</v>
+        <v>100.55</v>
       </c>
       <c r="C179" t="n">
-        <v>35862.517717748</v>
+        <v>100.609018603429</v>
       </c>
     </row>
     <row r="180">
@@ -3511,10 +3511,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="n">
-        <v>35784.4931244028</v>
+        <v>100.74</v>
       </c>
       <c r="C180" t="n">
-        <v>36104.8262393043</v>
+        <v>100.66720501975</v>
       </c>
     </row>
     <row r="181">
@@ -3522,10 +3522,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>36077.9259680229</v>
+        <v>100.82</v>
       </c>
       <c r="C181" t="n">
-        <v>36359.2585885211</v>
+        <v>100.676437367403</v>
       </c>
     </row>
     <row r="182">
@@ -3533,10 +3533,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="n">
-        <v>36954.6195690459</v>
+        <v>102.43</v>
       </c>
       <c r="C182" t="n">
-        <v>36826.8430980232</v>
+        <v>101.156969485056</v>
       </c>
     </row>
     <row r="183">
@@ -3544,10 +3544,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>37568.066253892</v>
+        <v>101.66</v>
       </c>
       <c r="C183" t="n">
-        <v>37310.6872884511</v>
+        <v>101.279692200387</v>
       </c>
     </row>
     <row r="184">
@@ -3555,10 +3555,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>37876.1243971739</v>
+        <v>100.82</v>
       </c>
       <c r="C184" t="n">
-        <v>37593.1211943619</v>
+        <v>100.763007694851</v>
       </c>
     </row>
     <row r="185">
@@ -3566,10 +3566,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>38008.690832564</v>
+        <v>100.35</v>
       </c>
       <c r="C185" t="n">
-        <v>37753.790350679</v>
+        <v>100.416861685717</v>
       </c>
     </row>
     <row r="186">
@@ -3577,10 +3577,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>38191.1325485604</v>
+        <v>100.48</v>
       </c>
       <c r="C186" t="n">
-        <v>37949.6460900069</v>
+        <v>100.562069901738</v>
       </c>
     </row>
     <row r="187">
@@ -3588,10 +3588,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>38298.0677196963</v>
+        <v>100.28</v>
       </c>
       <c r="C187" t="n">
-        <v>38129.3434525135</v>
+        <v>100.464551919508</v>
       </c>
     </row>
     <row r="188">
@@ -3599,10 +3599,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>38554.6647734183</v>
+        <v>100.67</v>
       </c>
       <c r="C188" t="n">
-        <v>38451.7424588012</v>
+        <v>100.906516064617</v>
       </c>
     </row>
     <row r="189">
@@ -3610,10 +3610,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>38627.9186364878</v>
+        <v>100.19</v>
       </c>
       <c r="C189" t="n">
-        <v>38789.3238468787</v>
+        <v>100.962401246033</v>
       </c>
     </row>
     <row r="190">
@@ -3621,10 +3621,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>38662.6837632606</v>
+        <v>100.09</v>
       </c>
       <c r="C190" t="n">
-        <v>38981.6786224818</v>
+        <v>100.543462389307</v>
       </c>
     </row>
     <row r="191">
@@ -3632,10 +3632,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>38770.9392777977</v>
+        <v>100.28</v>
       </c>
       <c r="C191" t="n">
-        <v>39117.7032861838</v>
+        <v>100.344187280058</v>
       </c>
     </row>
     <row r="192">
@@ -3643,10 +3643,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>39015.1961952479</v>
+        <v>100.63</v>
       </c>
       <c r="C192" t="n">
-        <v>39347.9910134316</v>
+        <v>100.584702078802</v>
       </c>
     </row>
     <row r="193">
@@ -3654,10 +3654,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>39323.4162451903</v>
+        <v>100.79</v>
       </c>
       <c r="C193" t="n">
-        <v>39604.632410171</v>
+        <v>100.674676482013</v>
       </c>
     </row>
     <row r="194">
@@ -3665,10 +3665,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="n">
-        <v>39984.0496381095</v>
+        <v>101.68</v>
       </c>
       <c r="C194" t="n">
-        <v>39862.2993954243</v>
+        <v>100.468848533987</v>
       </c>
     </row>
     <row r="195">
@@ -3676,10 +3676,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>40427.8725890925</v>
+        <v>101.11</v>
       </c>
       <c r="C195" t="n">
-        <v>40165.9621280474</v>
+        <v>100.753029077014</v>
       </c>
     </row>
     <row r="196">
@@ -3687,10 +3687,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>40666.3970373682</v>
+        <v>100.59</v>
       </c>
       <c r="C196" t="n">
-        <v>40381.6276350437</v>
+        <v>100.533408866916</v>
       </c>
     </row>
     <row r="197">
@@ -3698,10 +3698,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>40898.1955004812</v>
+        <v>100.57</v>
       </c>
       <c r="C197" t="n">
-        <v>40631.8233440356</v>
+        <v>100.644340842109</v>
       </c>
     </row>
     <row r="198">
@@ -3709,10 +3709,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>41155.8541321342</v>
+        <v>100.63</v>
       </c>
       <c r="C198" t="n">
-        <v>40921.3173643151</v>
+        <v>100.70735711614</v>
       </c>
     </row>
     <row r="199">
@@ -3720,10 +3720,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>41546.8347463895</v>
+        <v>100.95</v>
       </c>
       <c r="C199" t="n">
-        <v>41368.4920821722</v>
+        <v>101.118374449167</v>
       </c>
     </row>
     <row r="200">
@@ -3731,10 +3731,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>41908.2922086831</v>
+        <v>100.87</v>
       </c>
       <c r="C200" t="n">
-        <v>41798.3201834299</v>
+        <v>101.093971192647</v>
       </c>
     </row>
     <row r="201">
@@ -3742,10 +3742,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>41946.0096716709</v>
+        <v>100.09</v>
       </c>
       <c r="C201" t="n">
-        <v>42119.4542293439</v>
+        <v>100.822996992899</v>
       </c>
     </row>
     <row r="202">
@@ -3753,10 +3753,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>42277.3831480771</v>
+        <v>100.79</v>
       </c>
       <c r="C202" t="n">
-        <v>42609.1552126143</v>
+        <v>101.202636315351</v>
       </c>
     </row>
     <row r="203">
@@ -3764,10 +3764,10 @@
         <v>204</v>
       </c>
       <c r="B203" t="n">
-        <v>42970.7322317056</v>
+        <v>101.64</v>
       </c>
       <c r="C203" t="n">
-        <v>43312.4719178879</v>
+        <v>101.697853727034</v>
       </c>
     </row>
     <row r="204">
@@ -3775,10 +3775,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>43499.2722381556</v>
+        <v>101.23</v>
       </c>
       <c r="C204" t="n">
-        <v>43840.5341881151</v>
+        <v>101.205264934632</v>
       </c>
     </row>
     <row r="205">
@@ -3786,10 +3786,10 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>43990.8140144467</v>
+        <v>101.13</v>
       </c>
       <c r="C205" t="n">
-        <v>44289.4209738376</v>
+        <v>101.037268394945</v>
       </c>
     </row>
     <row r="206">
@@ -3797,10 +3797,10 @@
         <v>207</v>
       </c>
       <c r="B206" t="n">
-        <v>45007.0018181804</v>
+        <v>102.31</v>
       </c>
       <c r="C206" t="n">
-        <v>44871.9295971192</v>
+        <v>101.137592772554</v>
       </c>
     </row>
     <row r="207">
@@ -3808,10 +3808,10 @@
         <v>208</v>
       </c>
       <c r="B207" t="n">
-        <v>45547.0858399986</v>
+        <v>101.2</v>
       </c>
       <c r="C207" t="n">
-        <v>45294.7189470915</v>
+        <v>100.865681710651</v>
       </c>
     </row>
     <row r="208">
@@ -3819,10 +3819,10 @@
         <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>46093.6508700786</v>
+        <v>101.2</v>
       </c>
       <c r="C208" t="n">
-        <v>45799.8756232539</v>
+        <v>101.127559795357</v>
       </c>
     </row>
     <row r="209">
@@ -3830,10 +3830,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>46748.1807124337</v>
+        <v>101.42</v>
       </c>
       <c r="C209" t="n">
-        <v>46476.7636593016</v>
+        <v>101.489645475328</v>
       </c>
     </row>
     <row r="210">
@@ -3841,10 +3841,10 @@
         <v>211</v>
       </c>
       <c r="B210" t="n">
-        <v>47379.2811520516</v>
+        <v>101.35</v>
       </c>
       <c r="C210" t="n">
-        <v>47131.4638814182</v>
+        <v>101.417300684469</v>
       </c>
     </row>
     <row r="211">
@@ -3852,10 +3852,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>47838.8601792265</v>
+        <v>100.97</v>
       </c>
       <c r="C211" t="n">
-        <v>47645.8916384258</v>
+        <v>101.130844994205</v>
       </c>
     </row>
     <row r="212">
@@ -3863,10 +3863,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>48082.8383661405</v>
+        <v>100.51</v>
       </c>
       <c r="C212" t="n">
-        <v>47976.7775202933</v>
+        <v>100.726238111529</v>
       </c>
     </row>
     <row r="213">
@@ -3874,10 +3874,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>48255.9365842586</v>
+        <v>100.36</v>
       </c>
       <c r="C213" t="n">
-        <v>48425.6595576674</v>
+        <v>101.051401219267</v>
       </c>
     </row>
     <row r="214">
@@ -3885,10 +3885,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>48641.9840769327</v>
+        <v>100.8</v>
       </c>
       <c r="C214" t="n">
-        <v>48964.2606697107</v>
+        <v>101.181431566699</v>
       </c>
     </row>
     <row r="215">
@@ -3896,10 +3896,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>49084.6261320328</v>
+        <v>100.91</v>
       </c>
       <c r="C215" t="n">
-        <v>49440.7648489046</v>
+        <v>100.994767413416</v>
       </c>
     </row>
     <row r="216">
@@ -3907,10 +3907,10 @@
         <v>217</v>
       </c>
       <c r="B216" t="n">
-        <v>49492.0285289286</v>
+        <v>100.83</v>
       </c>
       <c r="C216" t="n">
-        <v>49846.2006448182</v>
+        <v>100.833288538751</v>
       </c>
     </row>
     <row r="217">
@@ -3918,10 +3918,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>49833.5235257782</v>
+        <v>100.69</v>
       </c>
       <c r="C217" t="n">
-        <v>50122.5773001063</v>
+        <v>100.608295259413</v>
       </c>
     </row>
     <row r="218">
@@ -3929,10 +3929,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>51014.5780333392</v>
+        <v>102.37</v>
       </c>
       <c r="C218" t="n">
-        <v>50899.713850202</v>
+        <v>101.238610281151</v>
       </c>
     </row>
     <row r="219">
@@ -3940,10 +3940,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="n">
-        <v>51856.3185708893</v>
+        <v>101.65</v>
       </c>
       <c r="C219" t="n">
-        <v>51606.7858195379</v>
+        <v>101.323333033468</v>
       </c>
     </row>
     <row r="220">
@@ -3951,10 +3951,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>52535.6363441679</v>
+        <v>101.31</v>
       </c>
       <c r="C220" t="n">
-        <v>52233.8181213249</v>
+        <v>101.219516780697</v>
       </c>
     </row>
     <row r="221">
@@ -3962,10 +3962,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="n">
-        <v>52898.1322349427</v>
+        <v>100.69</v>
       </c>
       <c r="C221" t="n">
-        <v>52631.6349104365</v>
+        <v>100.771809275314</v>
       </c>
     </row>
     <row r="222">
@@ -3973,10 +3973,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>53199.6515886819</v>
+        <v>100.57</v>
       </c>
       <c r="C222" t="n">
-        <v>52950.0728151793</v>
+        <v>100.639040605182</v>
       </c>
     </row>
     <row r="223">
@@ -3984,10 +3984,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>53518.849498214</v>
+        <v>100.6</v>
       </c>
       <c r="C223" t="n">
-        <v>53332.8404294013</v>
+        <v>100.753573945619</v>
       </c>
     </row>
     <row r="224">
@@ -3995,10 +3995,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="n">
-        <v>53856.0182500527</v>
+        <v>100.63</v>
       </c>
       <c r="C224" t="n">
-        <v>53737.6629000099</v>
+        <v>100.817202604058</v>
       </c>
     </row>
     <row r="225">
@@ -4006,10 +4006,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>53856.0182500527</v>
+        <v>100</v>
       </c>
       <c r="C225" t="n">
-        <v>54019.3339492671</v>
+        <v>100.635642232946</v>
       </c>
     </row>
     <row r="226">
@@ -4017,10 +4017,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>53839.8614445777</v>
+        <v>99.97</v>
       </c>
       <c r="C226" t="n">
-        <v>54151.9738425253</v>
+        <v>100.320555278937</v>
       </c>
     </row>
     <row r="227">
@@ -4028,10 +4028,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="n">
-        <v>53839.8614445777</v>
+        <v>100</v>
       </c>
       <c r="C227" t="n">
-        <v>54200.1167796314</v>
+        <v>100.110226746085</v>
       </c>
     </row>
     <row r="228">
@@ -4039,10 +4039,10 @@
         <v>229</v>
       </c>
       <c r="B228" t="n">
-        <v>53995.997042767</v>
+        <v>100.29</v>
       </c>
       <c r="C228" t="n">
-        <v>54331.1276324741</v>
+        <v>100.304121286126</v>
       </c>
     </row>
     <row r="229">
@@ -4050,10 +4050,10 @@
         <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>54217.3806306423</v>
+        <v>100.41</v>
       </c>
       <c r="C229" t="n">
-        <v>54504.1140246474</v>
+        <v>100.311727768184</v>
       </c>
     </row>
     <row r="230">
@@ -4061,10 +4061,10 @@
         <v>231</v>
       </c>
       <c r="B230" t="n">
-        <v>55106.5456729849</v>
+        <v>101.64</v>
       </c>
       <c r="C230" t="n">
-        <v>54976.9210397828</v>
+        <v>100.57993733506</v>
       </c>
     </row>
     <row r="231">
@@ -4072,10 +4072,10 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>55580.4619657725</v>
+        <v>100.86</v>
       </c>
       <c r="C231" t="n">
-        <v>55345.3343806597</v>
+        <v>100.572905719646</v>
       </c>
     </row>
     <row r="232">
@@ -4083,10 +4083,10 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>55930.6188761569</v>
+        <v>100.63</v>
       </c>
       <c r="C232" t="n">
-        <v>55638.5808537288</v>
+        <v>100.548825558596</v>
       </c>
     </row>
     <row r="233">
@@ -4094,10 +4094,10 @@
         <v>234</v>
       </c>
       <c r="B233" t="n">
-        <v>56092.8176708978</v>
+        <v>100.29</v>
       </c>
       <c r="C233" t="n">
-        <v>55847.0736670738</v>
+        <v>100.386582377273</v>
       </c>
     </row>
     <row r="234">
@@ -4105,10 +4105,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>56373.2817592522</v>
+        <v>100.5</v>
       </c>
       <c r="C234" t="n">
-        <v>56135.3550654061</v>
+        <v>100.569116884003</v>
       </c>
     </row>
     <row r="235">
@@ -4116,10 +4116,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>56593.1375581133</v>
+        <v>100.39</v>
       </c>
       <c r="C235" t="n">
-        <v>56415.0575350763</v>
+        <v>100.541314047875</v>
       </c>
     </row>
     <row r="236">
@@ -4127,10 +4127,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>56796.8728533225</v>
+        <v>100.36</v>
       </c>
       <c r="C236" t="n">
-        <v>56694.6812767328</v>
+        <v>100.520213503583</v>
       </c>
     </row>
     <row r="237">
@@ -4138,10 +4138,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>57109.2556540158</v>
+        <v>100.55</v>
       </c>
       <c r="C237" t="n">
-        <v>57277.6153668925</v>
+        <v>101.145007665887</v>
       </c>
     </row>
     <row r="238">
@@ -4149,10 +4149,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>57588.9734015096</v>
+        <v>100.84</v>
       </c>
       <c r="C238" t="n">
-        <v>57891.684869214</v>
+        <v>101.156403213862</v>
       </c>
     </row>
     <row r="239">
@@ -4160,10 +4160,10 @@
         <v>240</v>
       </c>
       <c r="B239" t="n">
-        <v>57876.9182685171</v>
+        <v>100.5</v>
       </c>
       <c r="C239" t="n">
-        <v>58231.9769659507</v>
+        <v>100.603208653127</v>
       </c>
     </row>
     <row r="240">
@@ -4171,10 +4171,10 @@
         <v>241</v>
       </c>
       <c r="B240" t="n">
-        <v>58345.7213064921</v>
+        <v>100.81</v>
       </c>
       <c r="C240" t="n">
-        <v>58671.091069922</v>
+        <v>100.817377088589</v>
       </c>
     </row>
     <row r="241">
@@ -4182,10 +4182,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>58975.8550966022</v>
+        <v>101.08</v>
       </c>
       <c r="C241" t="n">
-        <v>59211.5974053809</v>
+        <v>100.945439324959</v>
       </c>
     </row>
     <row r="242">
@@ -4193,10 +4193,10 @@
         <v>243</v>
       </c>
       <c r="B242" t="n">
-        <v>60373.5828623917</v>
+        <v>102.37</v>
       </c>
       <c r="C242" t="n">
-        <v>60246.0562154751</v>
+        <v>101.385167669849</v>
       </c>
     </row>
     <row r="243">
@@ -4204,10 +4204,10 @@
         <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>60844.4968087183</v>
+        <v>100.78</v>
       </c>
       <c r="C243" t="n">
-        <v>60615.2491651383</v>
+        <v>100.533649245883</v>
       </c>
     </row>
     <row r="244">
@@ -4215,10 +4215,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>61221.7326889324</v>
+        <v>100.62</v>
       </c>
       <c r="C244" t="n">
-        <v>60946.4374804569</v>
+        <v>100.550170508847</v>
       </c>
     </row>
     <row r="245">
@@ -4226,10 +4226,10 @@
         <v>246</v>
       </c>
       <c r="B245" t="n">
-        <v>61484.9861394948</v>
+        <v>100.43</v>
       </c>
       <c r="C245" t="n">
-        <v>61249.8927069899</v>
+        <v>100.52688462548</v>
       </c>
     </row>
     <row r="246">
@@ -4237,10 +4237,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>61780.1140729644</v>
+        <v>100.48</v>
       </c>
       <c r="C246" t="n">
-        <v>61552.3065106546</v>
+        <v>100.542351003601</v>
       </c>
     </row>
     <row r="247">
@@ -4248,10 +4248,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="n">
-        <v>61922.2083353322</v>
+        <v>100.23</v>
       </c>
       <c r="C247" t="n">
-        <v>61753.1906428782</v>
+        <v>100.369906205632</v>
       </c>
     </row>
     <row r="248">
@@ -4259,10 +4259,10 @@
         <v>249</v>
       </c>
       <c r="B248" t="n">
-        <v>61916.0161144986</v>
+        <v>99.99</v>
       </c>
       <c r="C248" t="n">
-        <v>61803.085084263</v>
+        <v>100.112307800296</v>
       </c>
     </row>
     <row r="249">
@@ -4270,10 +4270,10 @@
         <v>250</v>
       </c>
       <c r="B249" t="n">
-        <v>61767.4176758238</v>
+        <v>99.76</v>
       </c>
       <c r="C249" t="n">
-        <v>61924.9259970058</v>
+        <v>100.336011147471</v>
       </c>
     </row>
     <row r="250">
@@ -4281,10 +4281,10 @@
         <v>251</v>
       </c>
       <c r="B250" t="n">
-        <v>61742.7107087535</v>
+        <v>99.96</v>
       </c>
       <c r="C250" t="n">
-        <v>62063.0875023239</v>
+        <v>100.259399912719</v>
       </c>
     </row>
     <row r="251">
@@ -4292,10 +4292,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>62039.0757201555</v>
+        <v>100.48</v>
       </c>
       <c r="C251" t="n">
-        <v>62368.8047098541</v>
+        <v>100.567737627147</v>
       </c>
     </row>
     <row r="252">
@@ -4303,10 +4303,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>62299.6398381802</v>
+        <v>100.42</v>
       </c>
       <c r="C252" t="n">
-        <v>62608.2609490735</v>
+        <v>100.423960221675</v>
       </c>
     </row>
     <row r="253">
@@ -4314,10 +4314,10 @@
         <v>254</v>
       </c>
       <c r="B253" t="n">
-        <v>62573.7582534682</v>
+        <v>100.44</v>
       </c>
       <c r="C253" t="n">
-        <v>62774.2004403856</v>
+        <v>100.287809879341</v>
       </c>
     </row>
     <row r="254">
@@ -4325,10 +4325,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>62886.6270447355</v>
+        <v>100.5</v>
       </c>
       <c r="C254" t="n">
-        <v>62765.2182588282</v>
+        <v>99.6473207905066</v>
       </c>
     </row>
     <row r="255">
@@ -4336,10 +4336,10 @@
         <v>256</v>
       </c>
       <c r="B255" t="n">
-        <v>63119.307564801</v>
+        <v>100.37</v>
       </c>
       <c r="C255" t="n">
-        <v>62913.4674390502</v>
+        <v>100.159386861784</v>
       </c>
     </row>
     <row r="256">
@@ -4347,10 +4347,10 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>63485.3995486769</v>
+        <v>100.58</v>
       </c>
       <c r="C256" t="n">
-        <v>63231.0081624125</v>
+        <v>100.517775300128</v>
       </c>
     </row>
     <row r="257">
@@ -4358,10 +4358,10 @@
         <v>258</v>
       </c>
       <c r="B257" t="n">
-        <v>63682.2042872778</v>
+        <v>100.31</v>
       </c>
       <c r="C257" t="n">
-        <v>63466.8664380167</v>
+        <v>100.398311563852</v>
       </c>
     </row>
     <row r="258">
@@ -4369,10 +4369,10 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>64013.3517495716</v>
+        <v>100.52</v>
       </c>
       <c r="C258" t="n">
-        <v>63807.6559010671</v>
+        <v>100.575381130583</v>
       </c>
     </row>
     <row r="259">
@@ -4380,10 +4380,10 @@
         <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>64583.0705801428</v>
+        <v>100.89</v>
       </c>
       <c r="C259" t="n">
-        <v>64427.7095043471</v>
+        <v>101.014134711517</v>
       </c>
     </row>
     <row r="260">
@@ -4391,10 +4391,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="n">
-        <v>65377.4423482786</v>
+        <v>101.23</v>
       </c>
       <c r="C260" t="n">
-        <v>65250.3166661595</v>
+        <v>101.300291921643</v>
       </c>
     </row>
     <row r="261">
@@ -4402,10 +4402,10 @@
         <v>262</v>
       </c>
       <c r="B261" t="n">
-        <v>65442.8197906268</v>
+        <v>100.1</v>
       </c>
       <c r="C261" t="n">
-        <v>65611.6732748044</v>
+        <v>100.65962077614</v>
       </c>
     </row>
     <row r="262">
@@ -4413,10 +4413,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>65802.7552994753</v>
+        <v>100.55</v>
       </c>
       <c r="C262" t="n">
-        <v>66118.0340944536</v>
+        <v>100.840269139225</v>
       </c>
     </row>
     <row r="263">
@@ -4424,10 +4424,10 @@
         <v>264</v>
       </c>
       <c r="B263" t="n">
-        <v>66105.4479738529</v>
+        <v>100.46</v>
       </c>
       <c r="C263" t="n">
-        <v>66432.4729136736</v>
+        <v>100.539563979168</v>
       </c>
     </row>
     <row r="264">
@@ -4435,10 +4435,10 @@
         <v>265</v>
       </c>
       <c r="B264" t="n">
-        <v>66330.206496964</v>
+        <v>100.34</v>
       </c>
       <c r="C264" t="n">
-        <v>66613.2718197789</v>
+        <v>100.343563705859</v>
       </c>
     </row>
     <row r="265">
@@ -4446,10 +4446,10 @@
         <v>266</v>
       </c>
       <c r="B265" t="n">
-        <v>66688.3896120476</v>
+        <v>100.54</v>
       </c>
       <c r="C265" t="n">
-        <v>66864.1043116945</v>
+        <v>100.358309549821</v>
       </c>
     </row>
     <row r="266">
@@ -4457,10 +4457,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>67335.2669912844</v>
+        <v>100.97</v>
       </c>
       <c r="C266" t="n">
-        <v>67196.6758692855</v>
+        <v>100.185455732106</v>
       </c>
     </row>
     <row r="267">
@@ -4468,10 +4468,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>67712.3444864356</v>
+        <v>100.56</v>
       </c>
       <c r="C267" t="n">
-        <v>67498.1017390601</v>
+        <v>100.358088336611</v>
       </c>
     </row>
     <row r="268">
@@ -4479,10 +4479,10 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>67942.5664576895</v>
+        <v>100.34</v>
       </c>
       <c r="C268" t="n">
-        <v>67707.4152356693</v>
+        <v>100.284332932252</v>
       </c>
     </row>
     <row r="269">
@@ -4490,10 +4490,10 @@
         <v>270</v>
       </c>
       <c r="B269" t="n">
-        <v>68289.0735466237</v>
+        <v>100.51</v>
       </c>
       <c r="C269" t="n">
-        <v>68074.3742425781</v>
+        <v>100.587719111149</v>
       </c>
     </row>
     <row r="270">
@@ -4501,10 +4501,10 @@
         <v>271</v>
       </c>
       <c r="B270" t="n">
-        <v>68739.7814320314</v>
+        <v>100.66</v>
       </c>
       <c r="C270" t="n">
-        <v>68516.9539004011</v>
+        <v>100.720387559836</v>
       </c>
     </row>
     <row r="271">
@@ -4512,10 +4512,10 @@
         <v>272</v>
       </c>
       <c r="B271" t="n">
-        <v>69028.488514046</v>
+        <v>100.42</v>
       </c>
       <c r="C271" t="n">
-        <v>68902.3403376029</v>
+        <v>100.562087113631</v>
       </c>
     </row>
     <row r="272">
@@ -4523,10 +4523,10 @@
         <v>273</v>
       </c>
       <c r="B272" t="n">
-        <v>69594.5221198611</v>
+        <v>100.82</v>
       </c>
       <c r="C272" t="n">
-        <v>69461.4842754255</v>
+        <v>100.889162834418</v>
       </c>
     </row>
     <row r="273">
@@ -4534,10 +4534,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>69691.954450829</v>
+        <v>100.14</v>
       </c>
       <c r="C273" t="n">
-        <v>69877.3625144806</v>
+        <v>100.697698090337</v>
       </c>
     </row>
     <row r="274">
@@ -4545,10 +4545,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>69838.3075551757</v>
+        <v>100.21</v>
       </c>
       <c r="C274" t="n">
-        <v>70189.573223166</v>
+        <v>100.501705154583</v>
       </c>
     </row>
     <row r="275">
@@ -4556,10 +4556,10 @@
         <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>70236.3859082402</v>
+        <v>100.57</v>
       </c>
       <c r="C275" t="n">
-        <v>70580.8567816667</v>
+        <v>100.644971886701</v>
       </c>
     </row>
     <row r="276">
@@ -4567,10 +4567,10 @@
         <v>277</v>
       </c>
       <c r="B276" t="n">
-        <v>70629.7096693263</v>
+        <v>100.56</v>
       </c>
       <c r="C276" t="n">
-        <v>70907.7738463624</v>
+        <v>100.547928942242</v>
       </c>
     </row>
     <row r="277">
@@ -4578,10 +4578,10 @@
         <v>278</v>
       </c>
       <c r="B277" t="n">
-        <v>70989.9211886399</v>
+        <v>100.51</v>
       </c>
       <c r="C277" t="n">
-        <v>71130.474794441</v>
+        <v>100.280513380609</v>
       </c>
     </row>
     <row r="278">
@@ -4589,10 +4589,10 @@
         <v>279</v>
       </c>
       <c r="B278" t="n">
-        <v>71408.7617236529</v>
+        <v>100.59</v>
       </c>
       <c r="C278" t="n">
-        <v>71254.4489624474</v>
+        <v>99.8321057607433</v>
       </c>
     </row>
     <row r="279">
@@ -4600,10 +4600,10 @@
         <v>280</v>
       </c>
       <c r="B279" t="n">
-        <v>71908.6230557185</v>
+        <v>100.7</v>
       </c>
       <c r="C279" t="n">
-        <v>71687.2689522541</v>
+        <v>100.487836666979</v>
       </c>
     </row>
     <row r="280">
@@ -4611,10 +4611,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>72642.0910108868</v>
+        <v>101.02</v>
       </c>
       <c r="C280" t="n">
-        <v>72385.1660419791</v>
+        <v>100.960242925769</v>
       </c>
     </row>
     <row r="281">
@@ -4622,10 +4622,10 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>73295.8698299848</v>
+        <v>100.9</v>
       </c>
       <c r="C281" t="n">
-        <v>73069.0511897569</v>
+        <v>100.971268883505</v>
       </c>
     </row>
     <row r="282">
@@ -4633,10 +4633,10 @@
         <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>73955.5326584546</v>
+        <v>100.9</v>
       </c>
       <c r="C282" t="n">
-        <v>73733.4845872046</v>
+        <v>100.981622285954</v>
       </c>
     </row>
     <row r="283">
@@ -4644,10 +4644,10 @@
         <v>284</v>
       </c>
       <c r="B283" t="n">
-        <v>74414.0569609371</v>
+        <v>100.62</v>
       </c>
       <c r="C283" t="n">
-        <v>74281.4072966962</v>
+        <v>100.793578941465</v>
       </c>
     </row>
     <row r="284">
@@ -4655,10 +4655,10 @@
         <v>285</v>
       </c>
       <c r="B284" t="n">
-        <v>74778.6858400456</v>
+        <v>100.49</v>
       </c>
       <c r="C284" t="n">
-        <v>74668.1599968059</v>
+        <v>100.590049105224</v>
       </c>
     </row>
     <row r="285">
@@ -4666,10 +4666,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="n">
-        <v>74958.1546860618</v>
+        <v>100.24</v>
       </c>
       <c r="C285" t="n">
-        <v>75181.4434910629</v>
+        <v>100.808024337721</v>
       </c>
     </row>
     <row r="286">
@@ -4677,10 +4677,10 @@
         <v>287</v>
       </c>
       <c r="B286" t="n">
-        <v>75445.3826915212</v>
+        <v>100.65</v>
       </c>
       <c r="C286" t="n">
-        <v>75823.4588141258</v>
+        <v>100.95199917153</v>
       </c>
     </row>
     <row r="287">
@@ -4688,10 +4688,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>76064.0348295916</v>
+        <v>100.82</v>
       </c>
       <c r="C287" t="n">
-        <v>76453.2328865033</v>
+        <v>100.894939301997</v>
       </c>
     </row>
     <row r="288">
@@ -4699,10 +4699,10 @@
         <v>289</v>
       </c>
       <c r="B288" t="n">
-        <v>77037.6544754104</v>
+        <v>101.28</v>
       </c>
       <c r="C288" t="n">
-        <v>77308.688742242</v>
+        <v>101.247567712374</v>
       </c>
     </row>
     <row r="289">
@@ -4710,10 +4710,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>79056.0410226661</v>
+        <v>102.62</v>
       </c>
       <c r="C289" t="n">
-        <v>79179.7471086118</v>
+        <v>102.323313402824</v>
       </c>
     </row>
     <row r="290">
@@ -4721,10 +4721,10 @@
         <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>82099.6986020388</v>
+        <v>103.85</v>
       </c>
       <c r="C290" t="n">
-        <v>81905.1655017217</v>
+        <v>103.057200228166</v>
       </c>
     </row>
     <row r="291">
@@ -4732,10 +4732,10 @@
         <v>292</v>
       </c>
       <c r="B291" t="n">
-        <v>83922.311911004</v>
+        <v>102.22</v>
       </c>
       <c r="C291" t="n">
-        <v>83670.726664549</v>
+        <v>101.984534487474</v>
       </c>
     </row>
     <row r="292">
@@ -4743,10 +4743,10 @@
         <v>293</v>
       </c>
       <c r="B292" t="n">
-        <v>84937.7718851272</v>
+        <v>101.21</v>
       </c>
       <c r="C292" t="n">
-        <v>84666.2932564148</v>
+        <v>101.156438282826</v>
       </c>
     </row>
     <row r="293">
@@ -4754,10 +4754,10 @@
         <v>294</v>
       </c>
       <c r="B293" t="n">
-        <v>85328.4856357988</v>
+        <v>100.46</v>
       </c>
       <c r="C293" t="n">
-        <v>85077.5222971449</v>
+        <v>100.531128302565</v>
       </c>
     </row>
     <row r="294">
@@ -4765,10 +4765,10 @@
         <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>85627.1353355241</v>
+        <v>100.35</v>
       </c>
       <c r="C294" t="n">
-        <v>85383.2237245761</v>
+        <v>100.455913054597</v>
       </c>
     </row>
     <row r="295">
@@ -4776,10 +4776,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>85789.8268926616</v>
+        <v>100.19</v>
       </c>
       <c r="C295" t="n">
-        <v>85678.489662436</v>
+        <v>100.371688642926</v>
       </c>
     </row>
     <row r="296">
@@ -4787,10 +4787,10 @@
         <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>86476.1455078029</v>
+        <v>100.8</v>
       </c>
       <c r="C296" t="n">
-        <v>86354.1139284712</v>
+        <v>100.907435834679</v>
       </c>
     </row>
     <row r="297">
@@ -4798,10 +4798,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>86778.8120170801</v>
+        <v>100.35</v>
       </c>
       <c r="C297" t="n">
-        <v>87031.1114005905</v>
+        <v>100.907234365498</v>
       </c>
     </row>
     <row r="298">
@@ -4809,10 +4809,10 @@
         <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>87273.4512455775</v>
+        <v>100.57</v>
       </c>
       <c r="C298" t="n">
-        <v>87702.6055101603</v>
+        <v>100.861733701944</v>
       </c>
     </row>
     <row r="299">
@@ -4820,10 +4820,10 @@
         <v>300</v>
       </c>
       <c r="B299" t="n">
-        <v>87919.2747847948</v>
+        <v>100.74</v>
       </c>
       <c r="C299" t="n">
-        <v>88329.8452130411</v>
+        <v>100.794481331189</v>
       </c>
     </row>
     <row r="300">
@@ -4831,10 +4831,10 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>88578.6693456807</v>
+        <v>100.75</v>
       </c>
       <c r="C300" t="n">
-        <v>88873.3232168677</v>
+        <v>100.702470792518</v>
       </c>
     </row>
     <row r="301">
@@ -4842,10 +4842,10 @@
         <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>89260.7250996425</v>
+        <v>100.77</v>
       </c>
       <c r="C301" t="n">
-        <v>89375.0699305085</v>
+        <v>100.491159157274</v>
       </c>
     </row>
     <row r="302">
@@ -4853,10 +4853,10 @@
         <v>303</v>
       </c>
       <c r="B302" t="n">
-        <v>90117.628060599</v>
+        <v>100.96</v>
       </c>
       <c r="C302" t="n">
-        <v>89903.0051724189</v>
+        <v>100.285938747919</v>
       </c>
     </row>
     <row r="303">
@@ -4864,10 +4864,10 @@
         <v>304</v>
       </c>
       <c r="B303" t="n">
-        <v>90685.3691173808</v>
+        <v>100.63</v>
       </c>
       <c r="C303" t="n">
-        <v>90413.41392561</v>
+        <v>100.434184720994</v>
       </c>
     </row>
     <row r="304">
@@ -4875,10 +4875,10 @@
         <v>305</v>
       </c>
       <c r="B304" t="n">
-        <v>91102.5218153207</v>
+        <v>100.46</v>
       </c>
       <c r="C304" t="n">
-        <v>90822.2013283003</v>
+        <v>100.41155019531</v>
       </c>
     </row>
     <row r="305">
@@ -4886,10 +4886,10 @@
         <v>306</v>
       </c>
       <c r="B305" t="n">
-        <v>91503.3729113081</v>
+        <v>100.44</v>
       </c>
       <c r="C305" t="n">
-        <v>91232.4502460994</v>
+        <v>100.467395870184</v>
       </c>
     </row>
     <row r="306">
@@ -4897,10 +4897,10 @@
         <v>307</v>
       </c>
       <c r="B306" t="n">
-        <v>91878.5367402445</v>
+        <v>100.41</v>
       </c>
       <c r="C306" t="n">
-        <v>91624.0371225685</v>
+        <v>100.492661536836</v>
       </c>
     </row>
     <row r="307">
@@ -4908,10 +4908,10 @@
         <v>308</v>
       </c>
       <c r="B307" t="n">
-        <v>92209.2994725094</v>
+        <v>100.36</v>
       </c>
       <c r="C307" t="n">
-        <v>92069.7130336893</v>
+        <v>100.503624330933</v>
       </c>
     </row>
     <row r="308">
@@ -4919,10 +4919,10 @@
         <v>309</v>
       </c>
       <c r="B308" t="n">
-        <v>92707.229689661</v>
+        <v>100.54</v>
       </c>
       <c r="C308" t="n">
-        <v>92578.017896559</v>
+        <v>100.644368112399</v>
       </c>
     </row>
     <row r="309">
@@ -4930,10 +4930,10 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>92716.5004126299</v>
+        <v>100.01</v>
       </c>
       <c r="C309" t="n">
-        <v>92980.8860751746</v>
+        <v>100.555437953936</v>
       </c>
     </row>
     <row r="310">
@@ -4941,10 +4941,10 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>92874.1184633314</v>
+        <v>100.17</v>
       </c>
       <c r="C310" t="n">
-        <v>93340.0552639253</v>
+        <v>100.454360994364</v>
       </c>
     </row>
     <row r="311">
@@ -4952,10 +4952,10 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>93273.4771727237</v>
+        <v>100.43</v>
       </c>
       <c r="C311" t="n">
-        <v>93716.0155684238</v>
+        <v>100.466002381093</v>
       </c>
     </row>
     <row r="312">
@@ -4963,10 +4963,10 @@
         <v>313</v>
       </c>
       <c r="B312" t="n">
-        <v>93683.8804722837</v>
+        <v>100.44</v>
       </c>
       <c r="C312" t="n">
-        <v>93998.8018876945</v>
+        <v>100.378126008385</v>
       </c>
     </row>
     <row r="313">
@@ -4974,10 +4974,10 @@
         <v>314</v>
       </c>
       <c r="B313" t="n">
-        <v>94058.6159941729</v>
+        <v>100.4</v>
       </c>
       <c r="C313" t="n">
-        <v>94175.9442298638</v>
+        <v>100.134566488016</v>
       </c>
     </row>
     <row r="314">
@@ -4985,10 +4985,10 @@
         <v>315</v>
       </c>
       <c r="B314" t="n">
-        <v>94641.7794133367</v>
+        <v>100.62</v>
       </c>
       <c r="C314" t="n">
-        <v>94411.9381506043</v>
+        <v>100.046518609749</v>
       </c>
     </row>
     <row r="315">
@@ -4996,10 +4996,10 @@
         <v>316</v>
       </c>
       <c r="B315" t="n">
-        <v>94849.9913280461</v>
+        <v>100.22</v>
       </c>
       <c r="C315" t="n">
-        <v>94568.9490935785</v>
+        <v>100.057343569651</v>
       </c>
     </row>
     <row r="316">
@@ -5007,10 +5007,10 @@
         <v>317</v>
       </c>
       <c r="B316" t="n">
-        <v>94973.2963167725</v>
+        <v>100.13</v>
       </c>
       <c r="C316" t="n">
-        <v>94685.3742889204</v>
+        <v>100.078317638483</v>
       </c>
     </row>
     <row r="317">
@@ -5018,10 +5018,10 @@
         <v>318</v>
       </c>
       <c r="B317" t="n">
-        <v>95286.7081946179</v>
+        <v>100.33</v>
       </c>
       <c r="C317" t="n">
-        <v>94998.9883438991</v>
+        <v>100.307842880528</v>
       </c>
     </row>
     <row r="318">
@@ -5029,10 +5029,10 @@
         <v>319</v>
       </c>
       <c r="B318" t="n">
-        <v>95639.2690149379</v>
+        <v>100.37</v>
       </c>
       <c r="C318" t="n">
-        <v>95360.144797098</v>
+        <v>100.429078851937</v>
       </c>
     </row>
     <row r="319">
@@ -5040,10 +5040,10 @@
         <v>320</v>
       </c>
       <c r="B319" t="n">
-        <v>96222.6685559291</v>
+        <v>100.61</v>
       </c>
       <c r="C319" t="n">
-        <v>96058.8959362543</v>
+        <v>100.722578550852</v>
       </c>
     </row>
     <row r="320">
@@ -5051,10 +5051,10 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>96290.0244239182</v>
+        <v>100.07</v>
       </c>
       <c r="C320" t="n">
-        <v>96144.9474997184</v>
+        <v>100.188324713072</v>
       </c>
     </row>
     <row r="321">
@@ -5062,10 +5062,10 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>95770.058292029</v>
+        <v>99.46</v>
       </c>
       <c r="C321" t="n">
-        <v>96054.2741535301</v>
+        <v>100.003277034958</v>
       </c>
     </row>
     <row r="322">
@@ -5073,10 +5073,10 @@
         <v>323</v>
       </c>
       <c r="B322" t="n">
-        <v>95626.403204591</v>
+        <v>99.85</v>
       </c>
       <c r="C322" t="n">
-        <v>96125.9448172647</v>
+        <v>100.135184167918</v>
       </c>
     </row>
     <row r="323">
@@ -5084,10 +5084,10 @@
         <v>324</v>
       </c>
       <c r="B323" t="n">
-        <v>95817.6560110002</v>
+        <v>100.2</v>
       </c>
       <c r="C323" t="n">
-        <v>96293.5776570563</v>
+        <v>100.227722880058</v>
       </c>
     </row>
     <row r="324">
@@ -5095,10 +5095,10 @@
         <v>325</v>
       </c>
       <c r="B324" t="n">
-        <v>96028.4548542244</v>
+        <v>100.22</v>
       </c>
       <c r="C324" t="n">
-        <v>96385.6366437643</v>
+        <v>100.146448557658</v>
       </c>
     </row>
     <row r="325">
@@ -5106,10 +5106,10 @@
         <v>326</v>
       </c>
       <c r="B325" t="n">
-        <v>96431.7743646121</v>
+        <v>100.42</v>
       </c>
       <c r="C325" t="n">
-        <v>96529.47619053</v>
+        <v>100.154273581806</v>
       </c>
     </row>
     <row r="326">
@@ -5117,10 +5117,10 @@
         <v>327</v>
       </c>
       <c r="B326" t="n">
-        <v>96730.7128651424</v>
+        <v>100.31</v>
       </c>
       <c r="C326" t="n">
-        <v>96497.7058509986</v>
+        <v>99.8085488704864</v>
       </c>
     </row>
     <row r="327">
@@ -5128,10 +5128,10 @@
         <v>328</v>
       </c>
       <c r="B327" t="n">
-        <v>96933.8473621592</v>
+        <v>100.21</v>
       </c>
       <c r="C327" t="n">
-        <v>96638.0883457563</v>
+        <v>100.061820699115</v>
       </c>
     </row>
     <row r="328">
@@ -5139,10 +5139,10 @@
         <v>329</v>
       </c>
       <c r="B328" t="n">
-        <v>97214.9555195095</v>
+        <v>100.29</v>
       </c>
       <c r="C328" t="n">
-        <v>96902.8423719766</v>
+        <v>100.22182521322</v>
       </c>
     </row>
     <row r="329">
@@ -5150,10 +5150,10 @@
         <v>330</v>
       </c>
       <c r="B329" t="n">
-        <v>97584.3723504836</v>
+        <v>100.38</v>
       </c>
       <c r="C329" t="n">
-        <v>97270.6548986019</v>
+        <v>100.313608456802</v>
       </c>
     </row>
     <row r="330">
@@ -5161,10 +5161,10 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>97955.1929654155</v>
+        <v>100.38</v>
       </c>
       <c r="C330" t="n">
-        <v>97674.4184002538</v>
+        <v>100.43507325775</v>
       </c>
     </row>
     <row r="331">
@@ -5172,10 +5172,10 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>98435.173410946</v>
+        <v>100.49</v>
       </c>
       <c r="C331" t="n">
-        <v>98243.8740791486</v>
+        <v>100.609683446374</v>
       </c>
     </row>
     <row r="332">
@@ -5183,10 +5183,10 @@
         <v>333</v>
       </c>
       <c r="B332" t="n">
-        <v>98700.9483791556</v>
+        <v>100.27</v>
       </c>
       <c r="C332" t="n">
-        <v>98577.3264277018</v>
+        <v>100.407763002544</v>
       </c>
     </row>
     <row r="333">
@@ -5194,10 +5194,10 @@
         <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>98710.8184739935</v>
+        <v>100.01</v>
       </c>
       <c r="C333" t="n">
-        <v>99006.4833714497</v>
+        <v>100.549438358362</v>
       </c>
     </row>
     <row r="334">
@@ -5205,10 +5205,10 @@
         <v>335</v>
       </c>
       <c r="B334" t="n">
-        <v>98868.7557835519</v>
+        <v>100.16</v>
       </c>
       <c r="C334" t="n">
-        <v>99407.5338177455</v>
+        <v>100.444689509355</v>
       </c>
     </row>
     <row r="335">
@@ -5216,10 +5216,10 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>99214.7964287943</v>
+        <v>100.35</v>
       </c>
       <c r="C335" t="n">
-        <v>99737.1180245981</v>
+        <v>100.372544996971</v>
       </c>
     </row>
     <row r="336">
@@ -5227,10 +5227,10 @@
         <v>337</v>
       </c>
       <c r="B336" t="n">
-        <v>99710.8704109382</v>
+        <v>100.5</v>
       </c>
       <c r="C336" t="n">
-        <v>100086.403637091</v>
+        <v>100.412316334142</v>
       </c>
     </row>
     <row r="337">
@@ -5238,10 +5238,10 @@
         <v>338</v>
       </c>
       <c r="B337" t="n">
-        <v>100548.44172239</v>
+        <v>100.84</v>
       </c>
       <c r="C337" t="n">
-        <v>100655.192900124</v>
+        <v>100.566083817395</v>
       </c>
     </row>
     <row r="338">
@@ -5249,10 +5249,10 @@
         <v>339</v>
       </c>
       <c r="B338" t="n">
-        <v>101563.980983786</v>
+        <v>101.01</v>
       </c>
       <c r="C338" t="n">
-        <v>101290.401489163</v>
+        <v>100.54749184087</v>
       </c>
     </row>
     <row r="339">
@@ -5260,10 +5260,10 @@
         <v>340</v>
       </c>
       <c r="B339" t="n">
-        <v>102010.862500115</v>
+        <v>100.44</v>
       </c>
       <c r="C339" t="n">
-        <v>101690.924835856</v>
+        <v>100.287170788303</v>
       </c>
     </row>
     <row r="340">
@@ -5271,10 +5271,10 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>102337.297260115</v>
+        <v>100.32</v>
       </c>
       <c r="C340" t="n">
-        <v>101983.00674667</v>
+        <v>100.227374286853</v>
       </c>
     </row>
     <row r="341">
@@ -5282,10 +5282,10 @@
         <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>102634.07542217</v>
+        <v>100.29</v>
       </c>
       <c r="C341" t="n">
-        <v>102298.513001782</v>
+        <v>100.179506957986</v>
       </c>
     </row>
     <row r="342">
@@ -5293,10 +5293,10 @@
         <v>343</v>
       </c>
       <c r="B342" t="n">
-        <v>102983.031278605</v>
+        <v>100.34</v>
       </c>
       <c r="C342" t="n">
-        <v>102660.07204433</v>
+        <v>100.40372010364</v>
       </c>
     </row>
     <row r="343">
@@ -5304,10 +5304,10 @@
         <v>344</v>
       </c>
       <c r="B343" t="n">
-        <v>103024.224491116</v>
+        <v>100.04</v>
       </c>
       <c r="C343" t="n">
-        <v>102854.930974014</v>
+        <v>100.189010485071</v>
       </c>
     </row>
     <row r="344">
@@ -5315,10 +5315,10 @@
         <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>103230.272940099</v>
+        <v>100.2</v>
       </c>
       <c r="C344" t="n">
-        <v>103101.814937983</v>
+        <v>100.362693384421</v>
       </c>
     </row>
     <row r="345">
@@ -5326,10 +5326,10 @@
         <v>346</v>
       </c>
       <c r="B345" t="n">
-        <v>102982.520285042</v>
+        <v>99.76</v>
       </c>
       <c r="C345" t="n">
-        <v>103302.431028947</v>
+        <v>100.299870325084</v>
       </c>
     </row>
     <row r="346">
@@ -5337,10 +5337,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>102817.748252586</v>
+        <v>99.84</v>
       </c>
       <c r="C346" t="n">
-        <v>103399.872616188</v>
+        <v>100.123922435845</v>
       </c>
     </row>
     <row r="347">
@@ -5348,10 +5348,10 @@
         <v>348</v>
       </c>
       <c r="B347" t="n">
-        <v>102951.411325315</v>
+        <v>100.13</v>
       </c>
       <c r="C347" t="n">
-        <v>103516.78383957</v>
+        <v>100.145478070469</v>
       </c>
     </row>
     <row r="348">
@@ -5359,10 +5359,10 @@
         <v>349</v>
       </c>
       <c r="B348" t="n">
-        <v>103239.675277026</v>
+        <v>100.28</v>
       </c>
       <c r="C348" t="n">
-        <v>103630.799851889</v>
+        <v>100.178977642873</v>
       </c>
     </row>
     <row r="349">
@@ -5370,10 +5370,10 @@
         <v>350</v>
       </c>
       <c r="B349" t="n">
-        <v>103611.338108023</v>
+        <v>100.36</v>
       </c>
       <c r="C349" t="n">
-        <v>103703.754827629</v>
+        <v>100.091560203936</v>
       </c>
     </row>
     <row r="350">
@@ -5381,10 +5381,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>104025.783460455</v>
+        <v>100.4</v>
       </c>
       <c r="C350" t="n">
-        <v>103737.051087346</v>
+        <v>99.9837658877666</v>
       </c>
     </row>
     <row r="351">
@@ -5392,10 +5392,10 @@
         <v>352</v>
       </c>
       <c r="B351" t="n">
-        <v>104369.068545874</v>
+        <v>100.33</v>
       </c>
       <c r="C351" t="n">
-        <v>104022.354160497</v>
+        <v>100.165837336617</v>
       </c>
     </row>
     <row r="352">
@@ -5403,10 +5403,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>104943.098422877</v>
+        <v>100.55</v>
       </c>
       <c r="C352" t="n">
-        <v>104550.436930491</v>
+        <v>100.424610030988</v>
       </c>
     </row>
     <row r="353">
@@ -5414,10 +5414,10 @@
         <v>354</v>
       </c>
       <c r="B353" t="n">
-        <v>105814.126139787</v>
+        <v>100.83</v>
       </c>
       <c r="C353" t="n">
-        <v>105449.201031199</v>
+        <v>100.671028805043</v>
       </c>
     </row>
     <row r="354">
@@ -5425,10 +5425,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>106099.824280364</v>
+        <v>100.27</v>
       </c>
       <c r="C354" t="n">
-        <v>105783.287345922</v>
+        <v>100.346866915232</v>
       </c>
     </row>
     <row r="355">
@@ -5436,10 +5436,10 @@
         <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>106333.243893781</v>
+        <v>100.22</v>
       </c>
       <c r="C355" t="n">
-        <v>106170.76260633</v>
+        <v>100.399311356507</v>
       </c>
     </row>
     <row r="356">
@@ -5447,10 +5447,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>106705.410247409</v>
+        <v>100.35</v>
       </c>
       <c r="C356" t="n">
-        <v>106605.33610342</v>
+        <v>100.545667242401</v>
       </c>
     </row>
     <row r="357">
@@ -5458,10 +5458,10 @@
         <v>358</v>
       </c>
       <c r="B357" t="n">
-        <v>106662.72808331</v>
+        <v>99.96</v>
       </c>
       <c r="C357" t="n">
-        <v>107010.873875544</v>
+        <v>100.51069289437</v>
       </c>
     </row>
     <row r="358">
@@ -5469,10 +5469,10 @@
         <v>359</v>
       </c>
       <c r="B358" t="n">
-        <v>106588.064173652</v>
+        <v>99.93</v>
       </c>
       <c r="C358" t="n">
-        <v>107217.496797767</v>
+        <v>100.20356162219</v>
       </c>
     </row>
     <row r="359">
@@ -5480,10 +5480,10 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>107046.392849599</v>
+        <v>100.43</v>
       </c>
       <c r="C359" t="n">
-        <v>107642.125558405</v>
+        <v>100.431431351798</v>
       </c>
     </row>
     <row r="360">
@@ -5491,10 +5491,10 @@
         <v>361</v>
       </c>
       <c r="B360" t="n">
-        <v>107806.422238831</v>
+        <v>100.71</v>
       </c>
       <c r="C360" t="n">
-        <v>108200.718244162</v>
+        <v>100.591454737868</v>
       </c>
     </row>
     <row r="361">
@@ -5502,10 +5502,10 @@
         <v>362</v>
       </c>
       <c r="B361" t="n">
-        <v>108701.215543413</v>
+        <v>100.83</v>
       </c>
       <c r="C361" t="n">
-        <v>108775.856796699</v>
+        <v>100.556487015121</v>
       </c>
     </row>
     <row r="362">
@@ -5513,10 +5513,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>109429.513687554</v>
+        <v>100.67</v>
       </c>
       <c r="C362" t="n">
-        <v>109093.702144449</v>
+        <v>100.27547882127</v>
       </c>
     </row>
     <row r="363">
@@ -5524,10 +5524,10 @@
         <v>364</v>
       </c>
       <c r="B363" t="n">
-        <v>110283.063894317</v>
+        <v>100.78</v>
       </c>
       <c r="C363" t="n">
-        <v>109890.07484237</v>
+        <v>100.596596615884</v>
       </c>
     </row>
     <row r="364">
@@ -5535,10 +5535,10 @@
         <v>365</v>
       </c>
       <c r="B364" t="n">
-        <v>111010.932116019</v>
+        <v>100.66</v>
       </c>
       <c r="C364" t="n">
-        <v>110576.575597027</v>
+        <v>100.510996794526</v>
       </c>
     </row>
     <row r="365">
@@ -5546,10 +5546,10 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>111654.795522292</v>
+        <v>100.58</v>
       </c>
       <c r="C365" t="n">
-        <v>111280.038267513</v>
+        <v>100.391099615611</v>
       </c>
     </row>
     <row r="366">
@@ -5557,10 +5557,10 @@
         <v>367</v>
       </c>
       <c r="B366" t="n">
-        <v>112481.041009157</v>
+        <v>100.74</v>
       </c>
       <c r="C366" t="n">
-        <v>112158.910519276</v>
+        <v>100.84018840907</v>
       </c>
     </row>
     <row r="367">
@@ -5568,10 +5568,10 @@
         <v>368</v>
       </c>
       <c r="B367" t="n">
-        <v>113257.16019212</v>
+        <v>100.69</v>
       </c>
       <c r="C367" t="n">
-        <v>113124.176770871</v>
+        <v>100.905648089114</v>
       </c>
     </row>
     <row r="368">
@@ -5579,10 +5579,10 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>113608.257388716</v>
+        <v>100.31</v>
       </c>
       <c r="C368" t="n">
-        <v>113534.123880017</v>
+        <v>100.548135262799</v>
       </c>
     </row>
     <row r="369">
@@ -5590,10 +5590,10 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>113801.391426277</v>
+        <v>100.17</v>
       </c>
       <c r="C369" t="n">
-        <v>114215.471952751</v>
+        <v>100.73890489362</v>
       </c>
     </row>
     <row r="370">
@@ -5601,10 +5601,10 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>114484.199774834</v>
+        <v>100.6</v>
       </c>
       <c r="C370" t="n">
-        <v>115137.882159613</v>
+        <v>100.849269924457</v>
       </c>
     </row>
     <row r="371">
@@ -5612,10 +5612,10 @@
         <v>372</v>
       </c>
       <c r="B371" t="n">
-        <v>115754.974392335</v>
+        <v>101.11</v>
       </c>
       <c r="C371" t="n">
-        <v>116392.589875123</v>
+        <v>101.098332848831</v>
       </c>
     </row>
     <row r="372">
@@ -5623,10 +5623,10 @@
         <v>373</v>
       </c>
       <c r="B372" t="n">
-        <v>116866.222146501</v>
+        <v>100.96</v>
       </c>
       <c r="C372" t="n">
-        <v>117256.257625552</v>
+        <v>100.831022901915</v>
       </c>
     </row>
     <row r="373">
@@ -5634,10 +5634,10 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>117824.525168103</v>
+        <v>100.82</v>
       </c>
       <c r="C373" t="n">
-        <v>117885.580060187</v>
+        <v>100.538990510993</v>
       </c>
     </row>
     <row r="374">
@@ -5645,10 +5645,10 @@
         <v>375</v>
       </c>
       <c r="B374" t="n">
-        <v>118990.987967267</v>
+        <v>100.99</v>
       </c>
       <c r="C374" t="n">
-        <v>118596.381386983</v>
+        <v>100.594071683333</v>
       </c>
     </row>
     <row r="375">
@@ -5656,10 +5656,10 @@
         <v>376</v>
       </c>
       <c r="B375" t="n">
-        <v>120383.182526484</v>
+        <v>101.17</v>
       </c>
       <c r="C375" t="n">
-        <v>119929.902656404</v>
+        <v>100.966821510683</v>
       </c>
     </row>
     <row r="376">
@@ -5667,10 +5667,10 @@
         <v>377</v>
       </c>
       <c r="B376" t="n">
-        <v>129544.342716749</v>
+        <v>107.61</v>
       </c>
       <c r="C376" t="n">
-        <v>129073.364712603</v>
+        <v>107.422065586036</v>
       </c>
     </row>
     <row r="377">
@@ -5678,10 +5678,10 @@
         <v>378</v>
       </c>
       <c r="B377" t="n">
-        <v>131565.234463131</v>
+        <v>101.56</v>
       </c>
       <c r="C377" t="n">
-        <v>131150.105213537</v>
+        <v>101.33892107006</v>
       </c>
     </row>
     <row r="378">
@@ -5689,10 +5689,10 @@
         <v>379</v>
       </c>
       <c r="B378" t="n">
-        <v>131723.112744487</v>
+        <v>100.12</v>
       </c>
       <c r="C378" t="n">
-        <v>131412.13749358</v>
+        <v>100.244298849117</v>
       </c>
     </row>
     <row r="379">
@@ -5700,10 +5700,10 @@
         <v>380</v>
       </c>
       <c r="B379" t="n">
-        <v>131262.081849881</v>
+        <v>99.65</v>
       </c>
       <c r="C379" t="n">
-        <v>131146.971308438</v>
+        <v>99.9032388367451</v>
       </c>
     </row>
     <row r="380">
@@ -5711,10 +5711,10 @@
         <v>381</v>
       </c>
       <c r="B380" t="n">
-        <v>130750.159730666</v>
+        <v>99.61</v>
       </c>
       <c r="C380" t="n">
-        <v>130705.843495752</v>
+        <v>99.8736965531554</v>
       </c>
     </row>
     <row r="381">
@@ -5722,10 +5722,10 @@
         <v>382</v>
       </c>
       <c r="B381" t="n">
-        <v>130070.258900067</v>
+        <v>99.48</v>
       </c>
       <c r="C381" t="n">
-        <v>130516.931116756</v>
+        <v>100.058037264516</v>
       </c>
     </row>
     <row r="382">
@@ -5733,10 +5733,10 @@
         <v>383</v>
       </c>
       <c r="B382" t="n">
-        <v>130135.294029517</v>
+        <v>100.05</v>
       </c>
       <c r="C382" t="n">
-        <v>130828.382057564</v>
+        <v>100.275555235678</v>
       </c>
     </row>
     <row r="383">
@@ -5744,10 +5744,10 @@
         <v>384</v>
       </c>
       <c r="B383" t="n">
-        <v>130369.53755877</v>
+        <v>100.18</v>
       </c>
       <c r="C383" t="n">
-        <v>131027.061474339</v>
+        <v>100.175296213843</v>
       </c>
     </row>
     <row r="384">
@@ -5755,10 +5755,10 @@
         <v>385</v>
       </c>
       <c r="B384" t="n">
-        <v>130851.904847737</v>
+        <v>100.37</v>
       </c>
       <c r="C384" t="n">
-        <v>131276.254941939</v>
+        <v>100.237764086862</v>
       </c>
     </row>
     <row r="385">
@@ -5766,10 +5766,10 @@
         <v>386</v>
       </c>
       <c r="B385" t="n">
-        <v>131872.54970555</v>
+        <v>100.78</v>
       </c>
       <c r="C385" t="n">
-        <v>131903.859281585</v>
+        <v>100.482957042962</v>
       </c>
     </row>
     <row r="386">
@@ -5777,10 +5777,10 @@
         <v>387</v>
       </c>
       <c r="B386" t="n">
-        <v>132980.279123076</v>
+        <v>100.84</v>
       </c>
       <c r="C386" t="n">
-        <v>132558.344891563</v>
+        <v>100.435290795226</v>
       </c>
     </row>
     <row r="387">
@@ -5788,10 +5788,10 @@
         <v>388</v>
       </c>
       <c r="B387" t="n">
-        <v>133591.988407042</v>
+        <v>100.46</v>
       </c>
       <c r="C387" t="n">
-        <v>133102.422458407</v>
+        <v>100.262189740514</v>
       </c>
     </row>
     <row r="388">
@@ -5799,10 +5799,10 @@
         <v>389</v>
       </c>
       <c r="B388" t="n">
-        <v>134086.278764149</v>
+        <v>100.37</v>
       </c>
       <c r="C388" t="n">
-        <v>133595.183801992</v>
+        <v>100.20777542549</v>
       </c>
     </row>
     <row r="389">
@@ -5810,10 +5810,10 @@
         <v>390</v>
       </c>
       <c r="B389" t="n">
-        <v>134595.806623452</v>
+        <v>100.38</v>
       </c>
       <c r="C389" t="n">
-        <v>134163.998316649</v>
+        <v>100.174957972278</v>
       </c>
     </row>
     <row r="390">
@@ -5821,10 +5821,10 @@
         <v>391</v>
       </c>
       <c r="B390" t="n">
-        <v>135013.053623985</v>
+        <v>100.31</v>
       </c>
       <c r="C390" t="n">
-        <v>134709.651743076</v>
+        <v>100.448530998961</v>
       </c>
     </row>
     <row r="391">
@@ -5832,10 +5832,10 @@
         <v>392</v>
       </c>
       <c r="B391" t="n">
-        <v>135512.601922394</v>
+        <v>100.37</v>
       </c>
       <c r="C391" t="n">
-        <v>135423.005879948</v>
+        <v>100.629538090441</v>
       </c>
     </row>
     <row r="392">
@@ -5843,10 +5843,10 @@
         <v>393</v>
       </c>
       <c r="B392" t="n">
-        <v>136366.331314505</v>
+        <v>100.63</v>
       </c>
       <c r="C392" t="n">
-        <v>136336.18021923</v>
+        <v>100.885407895602</v>
       </c>
     </row>
     <row r="393">
@@ -5854,10 +5854,10 @@
         <v>394</v>
       </c>
       <c r="B393" t="n">
-        <v>136748.157042186</v>
+        <v>100.28</v>
       </c>
       <c r="C393" t="n">
-        <v>137220.1877807</v>
+        <v>100.85505209961</v>
       </c>
     </row>
     <row r="394">
@@ -5865,10 +5865,10 @@
         <v>395</v>
       </c>
       <c r="B394" t="n">
-        <v>137937.866008452</v>
+        <v>100.87</v>
       </c>
       <c r="C394" t="n">
-        <v>138655.5462458</v>
+        <v>101.074994619528</v>
       </c>
     </row>
     <row r="395">
@@ -5876,10 +5876,10 @@
         <v>396</v>
       </c>
       <c r="B395" t="n">
-        <v>139082.750296323</v>
+        <v>100.83</v>
       </c>
       <c r="C395" t="n">
-        <v>139769.47500239</v>
+        <v>100.828073178985</v>
       </c>
     </row>
     <row r="396">
@@ -5887,10 +5887,10 @@
         <v>397</v>
       </c>
       <c r="B396" t="n">
-        <v>140626.568824612</v>
+        <v>101.11</v>
       </c>
       <c r="C396" t="n">
-        <v>141037.931457925</v>
+        <v>100.972628951081</v>
       </c>
     </row>
   </sheetData>
